--- a/PythonResources/Data/Consumption/Sympheny/post_1380_coo.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/post_1380_coo.xlsx
@@ -471,7 +471,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>144.5590482459406</v>
+        <v>144.5590482459405</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -511,7 +511,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>9.682598203708991</v>
+        <v>9.68259820370899</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -535,7 +535,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>0.5940520646561603</v>
+        <v>0.5940520646561602</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -927,7 +927,7 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>29.17349277960883</v>
+        <v>29.17349277960882</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -951,7 +951,7 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>11.89833248440423</v>
+        <v>11.89833248440422</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -967,7 +967,7 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>7.656187813988985</v>
+        <v>7.656187813988984</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -999,7 +999,7 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>4.199913133744142</v>
+        <v>4.199913133744141</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1047,7 +1047,7 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>43.08232189633375</v>
+        <v>43.08232189633374</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1055,7 +1055,7 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>26.87552276546522</v>
+        <v>26.87552276546521</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1071,7 +1071,7 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>61.52967842487213</v>
+        <v>61.52967842487212</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1119,7 +1119,7 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>0.6540935283467102</v>
+        <v>0.6540935283467101</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -2175,7 +2175,7 @@
         <v>229</v>
       </c>
       <c r="B229">
-        <v>99.50670282772523</v>
+        <v>99.50670282772522</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -2367,7 +2367,7 @@
         <v>253</v>
       </c>
       <c r="B253">
-        <v>88.35300523835176</v>
+        <v>88.35300523835174</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -2383,7 +2383,7 @@
         <v>255</v>
       </c>
       <c r="B255">
-        <v>76.58532382298276</v>
+        <v>76.58532382298274</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -2551,7 +2551,7 @@
         <v>276</v>
       </c>
       <c r="B276">
-        <v>96.71227047408932</v>
+        <v>96.71227047408929</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -2791,7 +2791,7 @@
         <v>306</v>
       </c>
       <c r="B306">
-        <v>70.02023948592996</v>
+        <v>70.02023948592995</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -2799,7 +2799,7 @@
         <v>307</v>
       </c>
       <c r="B307">
-        <v>203.7265740992023</v>
+        <v>203.7265740992022</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -2991,7 +2991,7 @@
         <v>331</v>
       </c>
       <c r="B331">
-        <v>5.338523426047334</v>
+        <v>5.338523426047333</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -3319,7 +3319,7 @@
         <v>372</v>
       </c>
       <c r="B372">
-        <v>55.65975859152404</v>
+        <v>55.65975859152403</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -3735,7 +3735,7 @@
         <v>424</v>
       </c>
       <c r="B424">
-        <v>8.303054210522307</v>
+        <v>8.303054210522305</v>
       </c>
     </row>
     <row r="425" spans="1:2">
@@ -4271,7 +4271,7 @@
         <v>491</v>
       </c>
       <c r="B491">
-        <v>4.456086528638023</v>
+        <v>4.456086528638022</v>
       </c>
     </row>
     <row r="492" spans="1:2">
@@ -5463,7 +5463,7 @@
         <v>640</v>
       </c>
       <c r="B640">
-        <v>9.786726343745366</v>
+        <v>9.786726343745364</v>
       </c>
     </row>
     <row r="641" spans="1:2">
@@ -5631,7 +5631,7 @@
         <v>661</v>
       </c>
       <c r="B661">
-        <v>42.34612744721645</v>
+        <v>42.34612744721644</v>
       </c>
     </row>
     <row r="662" spans="1:2">
@@ -5823,7 +5823,7 @@
         <v>685</v>
       </c>
       <c r="B685">
-        <v>46.60327735481115</v>
+        <v>46.60327735481114</v>
       </c>
     </row>
     <row r="686" spans="1:2">
@@ -6039,7 +6039,7 @@
         <v>712</v>
       </c>
       <c r="B712">
-        <v>1.841494287166244</v>
+        <v>1.841494287166243</v>
       </c>
     </row>
     <row r="713" spans="1:2">
@@ -6223,7 +6223,7 @@
         <v>735</v>
       </c>
       <c r="B735">
-        <v>44.13972220382388</v>
+        <v>44.13972220382387</v>
       </c>
     </row>
     <row r="736" spans="1:2">
@@ -6399,7 +6399,7 @@
         <v>757</v>
       </c>
       <c r="B757">
-        <v>27.64178630314917</v>
+        <v>27.64178630314916</v>
       </c>
     </row>
     <row r="758" spans="1:2">
@@ -8199,7 +8199,7 @@
         <v>982</v>
       </c>
       <c r="B982">
-        <v>2.011824244125831</v>
+        <v>2.01182424412583</v>
       </c>
     </row>
     <row r="983" spans="1:2">
@@ -8207,7 +8207,7 @@
         <v>983</v>
       </c>
       <c r="B983">
-        <v>2.039953202416547</v>
+        <v>2.039953202416546</v>
       </c>
     </row>
     <row r="984" spans="1:2">
@@ -8279,7 +8279,7 @@
         <v>992</v>
       </c>
       <c r="B992">
-        <v>0.6950677902619529</v>
+        <v>0.6950677902619528</v>
       </c>
     </row>
     <row r="993" spans="1:2">
@@ -8335,7 +8335,7 @@
         <v>999</v>
       </c>
       <c r="B999">
-        <v>56.53135186050288</v>
+        <v>56.53135186050287</v>
       </c>
     </row>
     <row r="1000" spans="1:2">
@@ -8679,7 +8679,7 @@
         <v>1042</v>
       </c>
       <c r="B1042">
-        <v>0.6435429709549018</v>
+        <v>0.6435429709549016</v>
       </c>
     </row>
     <row r="1043" spans="1:2">
@@ -8735,7 +8735,7 @@
         <v>1049</v>
       </c>
       <c r="B1049">
-        <v>9.39541789292474</v>
+        <v>9.395417892924735</v>
       </c>
     </row>
     <row r="1050" spans="1:2">
@@ -9695,7 +9695,7 @@
         <v>1169</v>
       </c>
       <c r="B1169">
-        <v>3.672649028088515</v>
+        <v>3.672649028088514</v>
       </c>
     </row>
     <row r="1170" spans="1:2">
@@ -10119,7 +10119,7 @@
         <v>1222</v>
       </c>
       <c r="B1222">
-        <v>6.315446426321063</v>
+        <v>6.315446426321062</v>
       </c>
     </row>
     <row r="1223" spans="1:2">
@@ -10143,7 +10143,7 @@
         <v>1225</v>
       </c>
       <c r="B1225">
-        <v>2.103810451030468</v>
+        <v>2.103810451030467</v>
       </c>
     </row>
     <row r="1226" spans="1:2">
@@ -10239,7 +10239,7 @@
         <v>1237</v>
       </c>
       <c r="B1237">
-        <v>3.791166956123163</v>
+        <v>3.791166956123162</v>
       </c>
     </row>
     <row r="1238" spans="1:2">
@@ -10247,7 +10247,7 @@
         <v>1238</v>
       </c>
       <c r="B1238">
-        <v>18.86712217721303</v>
+        <v>18.86712217721302</v>
       </c>
     </row>
     <row r="1239" spans="1:2">
@@ -10271,7 +10271,7 @@
         <v>1241</v>
       </c>
       <c r="B1241">
-        <v>10.35332058278935</v>
+        <v>10.35332058278934</v>
       </c>
     </row>
     <row r="1242" spans="1:2">
@@ -10327,7 +10327,7 @@
         <v>1248</v>
       </c>
       <c r="B1248">
-        <v>4.505762069691121</v>
+        <v>4.50576206969112</v>
       </c>
     </row>
     <row r="1249" spans="1:2">
@@ -10495,7 +10495,7 @@
         <v>1269</v>
       </c>
       <c r="B1269">
-        <v>6.346570570626898</v>
+        <v>6.346570570626897</v>
       </c>
     </row>
     <row r="1270" spans="1:2">
@@ -10527,7 +10527,7 @@
         <v>1273</v>
       </c>
       <c r="B1273">
-        <v>0.9992989740755222</v>
+        <v>0.999298974075522</v>
       </c>
     </row>
     <row r="1274" spans="1:2">
@@ -10695,7 +10695,7 @@
         <v>1294</v>
       </c>
       <c r="B1294">
-        <v>6.862053220528337</v>
+        <v>6.862053220528336</v>
       </c>
     </row>
     <row r="1295" spans="1:2">
@@ -10791,7 +10791,7 @@
         <v>1306</v>
       </c>
       <c r="B1306">
-        <v>54.8139555739474</v>
+        <v>54.81395557394739</v>
       </c>
     </row>
     <row r="1307" spans="1:2">
@@ -10927,7 +10927,7 @@
         <v>1323</v>
       </c>
       <c r="B1323">
-        <v>0.5997552270685101</v>
+        <v>0.59975522706851</v>
       </c>
     </row>
     <row r="1324" spans="1:2">
@@ -10967,7 +10967,7 @@
         <v>1328</v>
       </c>
       <c r="B1328">
-        <v>0.5608441852654433</v>
+        <v>0.5608441852654432</v>
       </c>
     </row>
     <row r="1329" spans="1:2">
@@ -11351,7 +11351,7 @@
         <v>1376</v>
       </c>
       <c r="B1376">
-        <v>0.3731175314509186</v>
+        <v>0.3731175314509185</v>
       </c>
     </row>
     <row r="1377" spans="1:2">
@@ -11391,7 +11391,7 @@
         <v>1381</v>
       </c>
       <c r="B1381">
-        <v>6.129229088355643</v>
+        <v>6.129229088355642</v>
       </c>
     </row>
     <row r="1382" spans="1:2">
@@ -11399,7 +11399,7 @@
         <v>1382</v>
       </c>
       <c r="B1382">
-        <v>8.295434363517112</v>
+        <v>8.29543436351711</v>
       </c>
     </row>
     <row r="1383" spans="1:2">
@@ -11591,7 +11591,7 @@
         <v>1406</v>
       </c>
       <c r="B1406">
-        <v>50.36337878083621</v>
+        <v>50.3633787808362</v>
       </c>
     </row>
     <row r="1407" spans="1:2">
@@ -11599,7 +11599,7 @@
         <v>1407</v>
       </c>
       <c r="B1407">
-        <v>84.98444671997825</v>
+        <v>84.98444671997824</v>
       </c>
     </row>
     <row r="1408" spans="1:2">
@@ -11623,7 +11623,7 @@
         <v>1410</v>
       </c>
       <c r="B1410">
-        <v>30.44246106990859</v>
+        <v>30.44246106990858</v>
       </c>
     </row>
     <row r="1411" spans="1:2">
@@ -11975,7 +11975,7 @@
         <v>1454</v>
       </c>
       <c r="B1454">
-        <v>8.7807600035403</v>
+        <v>8.780760003540298</v>
       </c>
     </row>
     <row r="1455" spans="1:2">
@@ -12159,7 +12159,7 @@
         <v>1477</v>
       </c>
       <c r="B1477">
-        <v>32.21642006692571</v>
+        <v>32.2164200669257</v>
       </c>
     </row>
     <row r="1478" spans="1:2">
@@ -12183,7 +12183,7 @@
         <v>1480</v>
       </c>
       <c r="B1480">
-        <v>19.14518797869491</v>
+        <v>19.1451879786949</v>
       </c>
     </row>
     <row r="1481" spans="1:2">
@@ -12383,7 +12383,7 @@
         <v>1505</v>
       </c>
       <c r="B1505">
-        <v>52.34541821530289</v>
+        <v>52.34541821530288</v>
       </c>
     </row>
     <row r="1506" spans="1:2">
@@ -12567,7 +12567,7 @@
         <v>1528</v>
       </c>
       <c r="B1528">
-        <v>74.42216648662337</v>
+        <v>74.42216648662335</v>
       </c>
     </row>
     <row r="1529" spans="1:2">
@@ -12583,7 +12583,7 @@
         <v>1530</v>
       </c>
       <c r="B1530">
-        <v>20.52754545385275</v>
+        <v>20.52754545385274</v>
       </c>
     </row>
     <row r="1531" spans="1:2">
@@ -12719,7 +12719,7 @@
         <v>1547</v>
       </c>
       <c r="B1547">
-        <v>37.05209220483791</v>
+        <v>37.0520922048379</v>
       </c>
     </row>
     <row r="1548" spans="1:2">
@@ -13007,7 +13007,7 @@
         <v>1583</v>
       </c>
       <c r="B1583">
-        <v>65.44422828827172</v>
+        <v>65.4442282882717</v>
       </c>
     </row>
     <row r="1584" spans="1:2">
@@ -13047,7 +13047,7 @@
         <v>1588</v>
       </c>
       <c r="B1588">
-        <v>9.035028436682882</v>
+        <v>9.035028436682881</v>
       </c>
     </row>
     <row r="1589" spans="1:2">
@@ -13295,7 +13295,7 @@
         <v>1619</v>
       </c>
       <c r="B1619">
-        <v>3.563450759083298</v>
+        <v>3.563450759083297</v>
       </c>
     </row>
     <row r="1620" spans="1:2">
@@ -13479,7 +13479,7 @@
         <v>1642</v>
       </c>
       <c r="B1642">
-        <v>7.86154269077899</v>
+        <v>7.861542690778989</v>
       </c>
     </row>
     <row r="1643" spans="1:2">
@@ -13487,7 +13487,7 @@
         <v>1643</v>
       </c>
       <c r="B1643">
-        <v>0.7742643770394082</v>
+        <v>0.7742643770394081</v>
       </c>
     </row>
     <row r="1644" spans="1:2">
@@ -13671,7 +13671,7 @@
         <v>1666</v>
       </c>
       <c r="B1666">
-        <v>36.35135935139863</v>
+        <v>36.35135935139862</v>
       </c>
     </row>
     <row r="1667" spans="1:2">
@@ -14103,7 +14103,7 @@
         <v>1720</v>
       </c>
       <c r="B1720">
-        <v>39.78556578243227</v>
+        <v>39.78556578243226</v>
       </c>
     </row>
     <row r="1721" spans="1:2">
@@ -14111,7 +14111,7 @@
         <v>1721</v>
       </c>
       <c r="B1721">
-        <v>50.23853051836648</v>
+        <v>50.23853051836647</v>
       </c>
     </row>
     <row r="1722" spans="1:2">
@@ -14127,7 +14127,7 @@
         <v>1723</v>
       </c>
       <c r="B1723">
-        <v>18.08913579798262</v>
+        <v>18.08913579798261</v>
       </c>
     </row>
     <row r="1724" spans="1:2">
@@ -14295,7 +14295,7 @@
         <v>1744</v>
       </c>
       <c r="B1744">
-        <v>53.97372090610532</v>
+        <v>53.97372090610531</v>
       </c>
     </row>
     <row r="1745" spans="1:2">
@@ -14999,7 +14999,7 @@
         <v>1832</v>
       </c>
       <c r="B1832">
-        <v>3.38397405500709</v>
+        <v>3.383974055007089</v>
       </c>
     </row>
     <row r="1833" spans="1:2">
@@ -15103,7 +15103,7 @@
         <v>1845</v>
       </c>
       <c r="B1845">
-        <v>9.285311103699671</v>
+        <v>9.285311103699669</v>
       </c>
     </row>
     <row r="1846" spans="1:2">
@@ -15271,7 +15271,7 @@
         <v>1866</v>
       </c>
       <c r="B1866">
-        <v>199.6010130879665</v>
+        <v>199.6010130879664</v>
       </c>
     </row>
     <row r="1867" spans="1:2">
@@ -15495,7 +15495,7 @@
         <v>1894</v>
       </c>
       <c r="B1894">
-        <v>0.4596408941949075</v>
+        <v>0.4596408941949074</v>
       </c>
     </row>
     <row r="1895" spans="1:2">
@@ -15791,7 +15791,7 @@
         <v>1931</v>
       </c>
       <c r="B1931">
-        <v>68.41479633614311</v>
+        <v>68.4147963361431</v>
       </c>
     </row>
     <row r="1932" spans="1:2">
@@ -16999,7 +16999,7 @@
         <v>2082</v>
       </c>
       <c r="B2082">
-        <v>33.25096083340026</v>
+        <v>33.25096083340025</v>
       </c>
     </row>
     <row r="2083" spans="1:2">
@@ -17383,7 +17383,7 @@
         <v>2130</v>
       </c>
       <c r="B2130">
-        <v>263.993116347444</v>
+        <v>263.9931163474439</v>
       </c>
     </row>
     <row r="2131" spans="1:2">
@@ -17687,7 +17687,7 @@
         <v>2168</v>
       </c>
       <c r="B2168">
-        <v>9.981032442377838</v>
+        <v>9.981032442377836</v>
       </c>
     </row>
     <row r="2169" spans="1:2">
@@ -17703,7 +17703,7 @@
         <v>2170</v>
       </c>
       <c r="B2170">
-        <v>33.0853756965566</v>
+        <v>33.08537569655659</v>
       </c>
     </row>
     <row r="2171" spans="1:2">
@@ -17711,7 +17711,7 @@
         <v>2171</v>
       </c>
       <c r="B2171">
-        <v>41.24037041834719</v>
+        <v>41.24037041834718</v>
       </c>
     </row>
     <row r="2172" spans="1:2">
@@ -18079,7 +18079,7 @@
         <v>2217</v>
       </c>
       <c r="B2217">
-        <v>43.42873186403146</v>
+        <v>43.42873186403145</v>
       </c>
     </row>
     <row r="2218" spans="1:2">
@@ -18087,7 +18087,7 @@
         <v>2218</v>
       </c>
       <c r="B2218">
-        <v>87.3594944172898</v>
+        <v>87.35949441728978</v>
       </c>
     </row>
     <row r="2219" spans="1:2">
@@ -18199,7 +18199,7 @@
         <v>2232</v>
       </c>
       <c r="B2232">
-        <v>11.04704903840462</v>
+        <v>11.04704903840461</v>
       </c>
     </row>
     <row r="2233" spans="1:2">
@@ -18559,7 +18559,7 @@
         <v>2277</v>
       </c>
       <c r="B2277">
-        <v>61.28027497097132</v>
+        <v>61.28027497097131</v>
       </c>
     </row>
     <row r="2278" spans="1:2">
@@ -18591,7 +18591,7 @@
         <v>2281</v>
       </c>
       <c r="B2281">
-        <v>2.332464475394049</v>
+        <v>2.332464475394048</v>
       </c>
     </row>
     <row r="2282" spans="1:2">
@@ -18671,7 +18671,7 @@
         <v>2291</v>
       </c>
       <c r="B2291">
-        <v>11.38390489024197</v>
+        <v>11.38390489024196</v>
       </c>
     </row>
     <row r="2292" spans="1:2">
@@ -18815,7 +18815,7 @@
         <v>2309</v>
       </c>
       <c r="B2309">
-        <v>42.39448416859557</v>
+        <v>42.39448416859556</v>
       </c>
     </row>
     <row r="2310" spans="1:2">
@@ -18823,7 +18823,7 @@
         <v>2310</v>
       </c>
       <c r="B2310">
-        <v>33.21520616668357</v>
+        <v>33.21520616668356</v>
       </c>
     </row>
     <row r="2311" spans="1:2">
@@ -19023,7 +19023,7 @@
         <v>2335</v>
       </c>
       <c r="B2335">
-        <v>3.346285119435241</v>
+        <v>3.34628511943524</v>
       </c>
     </row>
     <row r="2336" spans="1:2">
@@ -19063,7 +19063,7 @@
         <v>2340</v>
       </c>
       <c r="B2340">
-        <v>84.49560422749113</v>
+        <v>84.49560422749111</v>
       </c>
     </row>
     <row r="2341" spans="1:2">
@@ -19071,7 +19071,7 @@
         <v>2341</v>
       </c>
       <c r="B2341">
-        <v>77.39068303722414</v>
+        <v>77.39068303722412</v>
       </c>
     </row>
     <row r="2342" spans="1:2">
@@ -19223,7 +19223,7 @@
         <v>2360</v>
       </c>
       <c r="B2360">
-        <v>2.073603619075643</v>
+        <v>2.073603619075642</v>
       </c>
     </row>
     <row r="2361" spans="1:2">
@@ -19255,7 +19255,7 @@
         <v>2364</v>
       </c>
       <c r="B2364">
-        <v>6.734069097944928</v>
+        <v>6.734069097944927</v>
       </c>
     </row>
     <row r="2365" spans="1:2">
@@ -19311,7 +19311,7 @@
         <v>2371</v>
       </c>
       <c r="B2371">
-        <v>9.393600852485038</v>
+        <v>9.393600852485037</v>
       </c>
     </row>
     <row r="2372" spans="1:2">
@@ -19463,7 +19463,7 @@
         <v>2390</v>
       </c>
       <c r="B2390">
-        <v>29.48089499206071</v>
+        <v>29.4808949920607</v>
       </c>
     </row>
     <row r="2391" spans="1:2">
@@ -19479,7 +19479,7 @@
         <v>2392</v>
       </c>
       <c r="B2392">
-        <v>72.58285264798477</v>
+        <v>72.58285264798475</v>
       </c>
     </row>
     <row r="2393" spans="1:2">
@@ -19679,7 +19679,7 @@
         <v>2417</v>
       </c>
       <c r="B2417">
-        <v>91.83761988803516</v>
+        <v>91.83761988803514</v>
       </c>
     </row>
     <row r="2418" spans="1:2">
@@ -19919,7 +19919,7 @@
         <v>2447</v>
       </c>
       <c r="B2447">
-        <v>60.15400296939577</v>
+        <v>60.15400296939576</v>
       </c>
     </row>
     <row r="2448" spans="1:2">
@@ -19967,7 +19967,7 @@
         <v>2453</v>
       </c>
       <c r="B2453">
-        <v>20.52886427352672</v>
+        <v>20.52886427352671</v>
       </c>
     </row>
     <row r="2454" spans="1:2">
@@ -20023,7 +20023,7 @@
         <v>2460</v>
       </c>
       <c r="B2460">
-        <v>117.8195397495181</v>
+        <v>117.819539749518</v>
       </c>
     </row>
     <row r="2461" spans="1:2">
@@ -20095,7 +20095,7 @@
         <v>2469</v>
       </c>
       <c r="B2469">
-        <v>37.50547310164701</v>
+        <v>37.505473101647</v>
       </c>
     </row>
     <row r="2470" spans="1:2">
@@ -20199,7 +20199,7 @@
         <v>2482</v>
       </c>
       <c r="B2482">
-        <v>60.33248323194053</v>
+        <v>60.33248323194052</v>
       </c>
     </row>
     <row r="2483" spans="1:2">
@@ -20223,7 +20223,7 @@
         <v>2485</v>
       </c>
       <c r="B2485">
-        <v>60.04204983262714</v>
+        <v>60.04204983262713</v>
       </c>
     </row>
     <row r="2486" spans="1:2">
@@ -20271,7 +20271,7 @@
         <v>2491</v>
       </c>
       <c r="B2491">
-        <v>119.3760400358485</v>
+        <v>119.3760400358484</v>
       </c>
     </row>
     <row r="2492" spans="1:2">
@@ -20599,7 +20599,7 @@
         <v>2532</v>
       </c>
       <c r="B2532">
-        <v>95.10155204560655</v>
+        <v>95.10155204560654</v>
       </c>
     </row>
     <row r="2533" spans="1:2">
@@ -20671,7 +20671,7 @@
         <v>2541</v>
       </c>
       <c r="B2541">
-        <v>99.97297885023544</v>
+        <v>99.97297885023542</v>
       </c>
     </row>
     <row r="2542" spans="1:2">
@@ -20695,7 +20695,7 @@
         <v>2544</v>
       </c>
       <c r="B2544">
-        <v>4.185259581811074</v>
+        <v>4.185259581811073</v>
       </c>
     </row>
     <row r="2545" spans="1:2">
@@ -20711,7 +20711,7 @@
         <v>2546</v>
       </c>
       <c r="B2546">
-        <v>0.7949581230792858</v>
+        <v>0.7949581230792857</v>
       </c>
     </row>
     <row r="2547" spans="1:2">
@@ -20871,7 +20871,7 @@
         <v>2566</v>
       </c>
       <c r="B2566">
-        <v>0.8513977437046877</v>
+        <v>0.8513977437046876</v>
       </c>
     </row>
     <row r="2567" spans="1:2">
@@ -21039,7 +21039,7 @@
         <v>2587</v>
       </c>
       <c r="B2587">
-        <v>49.8206112172354</v>
+        <v>49.82061121723539</v>
       </c>
     </row>
     <row r="2588" spans="1:2">
@@ -21167,7 +21167,7 @@
         <v>2603</v>
       </c>
       <c r="B2603">
-        <v>34.89919235483166</v>
+        <v>34.89919235483165</v>
       </c>
     </row>
     <row r="2604" spans="1:2">
@@ -21199,7 +21199,7 @@
         <v>2607</v>
       </c>
       <c r="B2607">
-        <v>88.35564287769971</v>
+        <v>88.35564287769969</v>
       </c>
     </row>
     <row r="2608" spans="1:2">
@@ -21343,7 +21343,7 @@
         <v>2625</v>
       </c>
       <c r="B2625">
-        <v>40.59326956498294</v>
+        <v>40.59326956498293</v>
       </c>
     </row>
     <row r="2626" spans="1:2">
@@ -21367,7 +21367,7 @@
         <v>2628</v>
       </c>
       <c r="B2628">
-        <v>60.8444783364819</v>
+        <v>60.84447833648189</v>
       </c>
     </row>
     <row r="2629" spans="1:2">
@@ -21607,7 +21607,7 @@
         <v>2658</v>
       </c>
       <c r="B2658">
-        <v>0.9810670247604</v>
+        <v>0.9810670247603998</v>
       </c>
     </row>
     <row r="2659" spans="1:2">
@@ -22007,7 +22007,7 @@
         <v>2708</v>
       </c>
       <c r="B2708">
-        <v>0.4894139810125136</v>
+        <v>0.4894139810125135</v>
       </c>
     </row>
     <row r="2709" spans="1:2">
@@ -22015,7 +22015,7 @@
         <v>2709</v>
       </c>
       <c r="B2709">
-        <v>0.5702840034207253</v>
+        <v>0.5702840034207252</v>
       </c>
     </row>
     <row r="2710" spans="1:2">
@@ -22183,7 +22183,7 @@
         <v>2730</v>
       </c>
       <c r="B2730">
-        <v>180.1712824378353</v>
+        <v>180.1712824378352</v>
       </c>
     </row>
     <row r="2731" spans="1:2">
@@ -22223,7 +22223,7 @@
         <v>2735</v>
       </c>
       <c r="B2735">
-        <v>6.222572214169282</v>
+        <v>6.222572214169281</v>
       </c>
     </row>
     <row r="2736" spans="1:2">
@@ -22375,7 +22375,7 @@
         <v>2754</v>
       </c>
       <c r="B2754">
-        <v>248.6241780090044</v>
+        <v>248.6241780090043</v>
       </c>
     </row>
     <row r="2755" spans="1:2">
@@ -22407,7 +22407,7 @@
         <v>2758</v>
       </c>
       <c r="B2758">
-        <v>31.48725932273628</v>
+        <v>31.48725932273627</v>
       </c>
     </row>
     <row r="2759" spans="1:2">
@@ -22543,7 +22543,7 @@
         <v>2775</v>
       </c>
       <c r="B2775">
-        <v>196.7980816742094</v>
+        <v>196.7980816742093</v>
       </c>
     </row>
     <row r="2776" spans="1:2">
@@ -22727,7 +22727,7 @@
         <v>2798</v>
       </c>
       <c r="B2798">
-        <v>42.91937439883804</v>
+        <v>42.91937439883803</v>
       </c>
     </row>
     <row r="2799" spans="1:2">
@@ -23071,7 +23071,7 @@
         <v>2841</v>
       </c>
       <c r="B2841">
-        <v>20.43068547557517</v>
+        <v>20.43068547557516</v>
       </c>
     </row>
     <row r="2842" spans="1:2">
@@ -23159,7 +23159,7 @@
         <v>2852</v>
       </c>
       <c r="B2852">
-        <v>137.7117364986569</v>
+        <v>137.7117364986568</v>
       </c>
     </row>
     <row r="2853" spans="1:2">
@@ -23247,7 +23247,7 @@
         <v>2863</v>
       </c>
       <c r="B2863">
-        <v>1.739731230411865</v>
+        <v>1.739731230411864</v>
       </c>
     </row>
     <row r="2864" spans="1:2">
@@ -23335,7 +23335,7 @@
         <v>2874</v>
       </c>
       <c r="B2874">
-        <v>353.651753063032</v>
+        <v>353.6517530630319</v>
       </c>
     </row>
     <row r="2875" spans="1:2">
@@ -23343,7 +23343,7 @@
         <v>2875</v>
       </c>
       <c r="B2875">
-        <v>257.401362545873</v>
+        <v>257.4013625458729</v>
       </c>
     </row>
     <row r="2876" spans="1:2">
@@ -23359,7 +23359,7 @@
         <v>2877</v>
       </c>
       <c r="B2877">
-        <v>140.148622185126</v>
+        <v>140.1486221851259</v>
       </c>
     </row>
     <row r="2878" spans="1:2">
@@ -23583,7 +23583,7 @@
         <v>2905</v>
       </c>
       <c r="B2905">
-        <v>45.49488268659394</v>
+        <v>45.49488268659393</v>
       </c>
     </row>
     <row r="2906" spans="1:2">
@@ -23695,7 +23695,7 @@
         <v>2919</v>
       </c>
       <c r="B2919">
-        <v>271.3641460408155</v>
+        <v>271.3641460408154</v>
       </c>
     </row>
     <row r="2920" spans="1:2">
@@ -23783,7 +23783,7 @@
         <v>2930</v>
       </c>
       <c r="B2930">
-        <v>54.8450211040455</v>
+        <v>54.84502110404549</v>
       </c>
     </row>
     <row r="2931" spans="1:2">
@@ -24023,7 +24023,7 @@
         <v>2960</v>
       </c>
       <c r="B2960">
-        <v>39.19707913680029</v>
+        <v>39.19707913680028</v>
       </c>
     </row>
     <row r="2961" spans="1:2">
@@ -24071,7 +24071,7 @@
         <v>2966</v>
       </c>
       <c r="B2966">
-        <v>113.2256512185015</v>
+        <v>113.2256512185014</v>
       </c>
     </row>
     <row r="2967" spans="1:2">
@@ -24095,7 +24095,7 @@
         <v>2969</v>
       </c>
       <c r="B2969">
-        <v>22.33936922906492</v>
+        <v>22.33936922906491</v>
       </c>
     </row>
     <row r="2970" spans="1:2">
@@ -24119,7 +24119,7 @@
         <v>2972</v>
       </c>
       <c r="B2972">
-        <v>62.9666057274287</v>
+        <v>62.96660572742869</v>
       </c>
     </row>
     <row r="2973" spans="1:2">
@@ -24159,7 +24159,7 @@
         <v>2977</v>
       </c>
       <c r="B2977">
-        <v>0.4911460308510021</v>
+        <v>0.491146030851002</v>
       </c>
     </row>
     <row r="2978" spans="1:2">
@@ -24215,7 +24215,7 @@
         <v>2984</v>
       </c>
       <c r="B2984">
-        <v>29.89881429319179</v>
+        <v>29.89881429319178</v>
       </c>
     </row>
     <row r="2985" spans="1:2">
@@ -24279,7 +24279,7 @@
         <v>2992</v>
       </c>
       <c r="B2992">
-        <v>244.3136891723733</v>
+        <v>244.3136891723732</v>
       </c>
     </row>
     <row r="2993" spans="1:2">
@@ -24359,7 +24359,7 @@
         <v>3002</v>
       </c>
       <c r="B3002">
-        <v>0.92580261900003</v>
+        <v>0.9258026190000298</v>
       </c>
     </row>
     <row r="3003" spans="1:2">
@@ -24367,7 +24367,7 @@
         <v>3003</v>
       </c>
       <c r="B3003">
-        <v>0.9173914801904494</v>
+        <v>0.9173914801904492</v>
       </c>
     </row>
     <row r="3004" spans="1:2">
@@ -24415,7 +24415,7 @@
         <v>3009</v>
       </c>
       <c r="B3009">
-        <v>120.1986904413709</v>
+        <v>120.1986904413708</v>
       </c>
     </row>
     <row r="3010" spans="1:2">
@@ -24583,7 +24583,7 @@
         <v>3030</v>
       </c>
       <c r="B3030">
-        <v>49.35462826576386</v>
+        <v>49.35462826576385</v>
       </c>
     </row>
     <row r="3031" spans="1:2">
@@ -24655,7 +24655,7 @@
         <v>3039</v>
       </c>
       <c r="B3039">
-        <v>230.5285067268596</v>
+        <v>230.5285067268595</v>
       </c>
     </row>
     <row r="3040" spans="1:2">
@@ -24671,7 +24671,7 @@
         <v>3041</v>
       </c>
       <c r="B3041">
-        <v>176.4736051430451</v>
+        <v>176.473605143045</v>
       </c>
     </row>
     <row r="3042" spans="1:2">
@@ -24687,7 +24687,7 @@
         <v>3043</v>
       </c>
       <c r="B3043">
-        <v>316.440523284201</v>
+        <v>316.4405232842009</v>
       </c>
     </row>
     <row r="3044" spans="1:2">
@@ -24759,7 +24759,7 @@
         <v>3052</v>
       </c>
       <c r="B3052">
-        <v>56.05980055929678</v>
+        <v>56.05980055929677</v>
       </c>
     </row>
     <row r="3053" spans="1:2">
@@ -24791,7 +24791,7 @@
         <v>3056</v>
       </c>
       <c r="B3056">
-        <v>112.6957787806018</v>
+        <v>112.6957787806017</v>
       </c>
     </row>
     <row r="3057" spans="1:2">
@@ -24903,7 +24903,7 @@
         <v>3070</v>
       </c>
       <c r="B3070">
-        <v>137.9933777668105</v>
+        <v>137.9933777668104</v>
       </c>
     </row>
     <row r="3071" spans="1:2">
@@ -24911,7 +24911,7 @@
         <v>3071</v>
       </c>
       <c r="B3071">
-        <v>90.35526657448608</v>
+        <v>90.35526657448604</v>
       </c>
     </row>
     <row r="3072" spans="1:2">
@@ -24967,7 +24967,7 @@
         <v>3078</v>
       </c>
       <c r="B3078">
-        <v>23.97526245976868</v>
+        <v>23.97526245976867</v>
       </c>
     </row>
     <row r="3079" spans="1:2">
@@ -25055,7 +25055,7 @@
         <v>3089</v>
       </c>
       <c r="B3089">
-        <v>76.40977427082461</v>
+        <v>76.4097742708246</v>
       </c>
     </row>
     <row r="3090" spans="1:2">
@@ -25135,7 +25135,7 @@
         <v>3099</v>
       </c>
       <c r="B3099">
-        <v>58.66139216949354</v>
+        <v>58.66139216949353</v>
       </c>
     </row>
     <row r="3100" spans="1:2">
@@ -25159,7 +25159,7 @@
         <v>3102</v>
       </c>
       <c r="B3102">
-        <v>74.03795035493835</v>
+        <v>74.03795035493833</v>
       </c>
     </row>
     <row r="3103" spans="1:2">
@@ -25223,7 +25223,7 @@
         <v>3110</v>
       </c>
       <c r="B3110">
-        <v>253.2438567914232</v>
+        <v>253.2438567914231</v>
       </c>
     </row>
     <row r="3111" spans="1:2">
@@ -25271,7 +25271,7 @@
         <v>3116</v>
       </c>
       <c r="B3116">
-        <v>224.5935251229287</v>
+        <v>224.5935251229286</v>
       </c>
     </row>
     <row r="3117" spans="1:2">
@@ -25367,7 +25367,7 @@
         <v>3128</v>
       </c>
       <c r="B3128">
-        <v>44.78154777849223</v>
+        <v>44.78154777849222</v>
       </c>
     </row>
     <row r="3129" spans="1:2">
@@ -25375,7 +25375,7 @@
         <v>3129</v>
       </c>
       <c r="B3129">
-        <v>89.62200283575538</v>
+        <v>89.62200283575537</v>
       </c>
     </row>
     <row r="3130" spans="1:2">
@@ -25487,7 +25487,7 @@
         <v>3143</v>
       </c>
       <c r="B3143">
-        <v>89.47165739292211</v>
+        <v>89.4716573929221</v>
       </c>
     </row>
     <row r="3144" spans="1:2">
@@ -25583,7 +25583,7 @@
         <v>3155</v>
       </c>
       <c r="B3155">
-        <v>224.3159868493164</v>
+        <v>224.3159868493163</v>
       </c>
     </row>
     <row r="3156" spans="1:2">
@@ -25783,7 +25783,7 @@
         <v>3180</v>
       </c>
       <c r="B3180">
-        <v>320.5552406670063</v>
+        <v>320.5552406670062</v>
       </c>
     </row>
     <row r="3181" spans="1:2">
@@ -26071,7 +26071,7 @@
         <v>3216</v>
       </c>
       <c r="B3216">
-        <v>8.068187080139104</v>
+        <v>8.068187080139102</v>
       </c>
     </row>
     <row r="3217" spans="1:2">
@@ -26143,7 +26143,7 @@
         <v>3225</v>
       </c>
       <c r="B3225">
-        <v>88.96962670369523</v>
+        <v>88.96962670369521</v>
       </c>
     </row>
     <row r="3226" spans="1:2">
@@ -26159,7 +26159,7 @@
         <v>3227</v>
       </c>
       <c r="B3227">
-        <v>102.0077710716612</v>
+        <v>102.0077710716611</v>
       </c>
     </row>
     <row r="3228" spans="1:2">
@@ -26215,7 +26215,7 @@
         <v>3234</v>
       </c>
       <c r="B3234">
-        <v>394.8223725741778</v>
+        <v>394.8223725741777</v>
       </c>
     </row>
     <row r="3235" spans="1:2">
@@ -26287,7 +26287,7 @@
         <v>3243</v>
       </c>
       <c r="B3243">
-        <v>0.6212226806504536</v>
+        <v>0.6212226806504535</v>
       </c>
     </row>
     <row r="3244" spans="1:2">
@@ -26391,7 +26391,7 @@
         <v>3256</v>
       </c>
       <c r="B3256">
-        <v>320.057019901282</v>
+        <v>320.0570199012819</v>
       </c>
     </row>
     <row r="3257" spans="1:2">
@@ -26511,7 +26511,7 @@
         <v>3271</v>
       </c>
       <c r="B3271">
-        <v>59.82312576674711</v>
+        <v>59.8231257667471</v>
       </c>
     </row>
     <row r="3272" spans="1:2">
@@ -26519,7 +26519,7 @@
         <v>3272</v>
       </c>
       <c r="B3272">
-        <v>129.7645291432772</v>
+        <v>129.7645291432771</v>
       </c>
     </row>
     <row r="3273" spans="1:2">
@@ -26551,7 +26551,7 @@
         <v>3276</v>
       </c>
       <c r="B3276">
-        <v>236.0186064941026</v>
+        <v>236.0186064941025</v>
       </c>
     </row>
     <row r="3277" spans="1:2">
@@ -26671,7 +26671,7 @@
         <v>3291</v>
       </c>
       <c r="B3291">
-        <v>72.94977758838877</v>
+        <v>72.94977758838876</v>
       </c>
     </row>
     <row r="3292" spans="1:2">
@@ -26703,7 +26703,7 @@
         <v>3295</v>
       </c>
       <c r="B3295">
-        <v>3.882575813081637</v>
+        <v>3.882575813081636</v>
       </c>
     </row>
     <row r="3296" spans="1:2">
@@ -26727,7 +26727,7 @@
         <v>3298</v>
       </c>
       <c r="B3298">
-        <v>1.614926928597931</v>
+        <v>1.61492692859793</v>
       </c>
     </row>
     <row r="3299" spans="1:2">
@@ -26807,7 +26807,7 @@
         <v>3308</v>
       </c>
       <c r="B3308">
-        <v>52.9541267626025</v>
+        <v>52.95412676260249</v>
       </c>
     </row>
     <row r="3309" spans="1:2">
@@ -26943,7 +26943,7 @@
         <v>3325</v>
       </c>
       <c r="B3325">
-        <v>60.21525481647599</v>
+        <v>60.21525481647598</v>
       </c>
     </row>
     <row r="3326" spans="1:2">
@@ -26983,7 +26983,7 @@
         <v>3330</v>
       </c>
       <c r="B3330">
-        <v>292.959671666654</v>
+        <v>292.9596716666539</v>
       </c>
     </row>
     <row r="3331" spans="1:2">
@@ -27031,7 +27031,7 @@
         <v>3336</v>
       </c>
       <c r="B3336">
-        <v>0.7120395341108313</v>
+        <v>0.7120395341108312</v>
       </c>
     </row>
     <row r="3337" spans="1:2">
@@ -27135,7 +27135,7 @@
         <v>3349</v>
       </c>
       <c r="B3349">
-        <v>72.51398095389935</v>
+        <v>72.51398095389933</v>
       </c>
     </row>
     <row r="3350" spans="1:2">
@@ -27351,7 +27351,7 @@
         <v>3376</v>
       </c>
       <c r="B3376">
-        <v>59.02567947054959</v>
+        <v>59.02567947054958</v>
       </c>
     </row>
     <row r="3377" spans="1:2">
@@ -27471,7 +27471,7 @@
         <v>3391</v>
       </c>
       <c r="B3391">
-        <v>8.335585095813716</v>
+        <v>8.335585095813714</v>
       </c>
     </row>
     <row r="3392" spans="1:2">
@@ -27495,7 +27495,7 @@
         <v>3394</v>
       </c>
       <c r="B3394">
-        <v>90.79897612701934</v>
+        <v>90.79897612701932</v>
       </c>
     </row>
     <row r="3395" spans="1:2">
@@ -27591,7 +27591,7 @@
         <v>3406</v>
       </c>
       <c r="B3406">
-        <v>41.58912495435419</v>
+        <v>41.58912495435418</v>
       </c>
     </row>
     <row r="3407" spans="1:2">
@@ -27735,7 +27735,7 @@
         <v>3424</v>
       </c>
       <c r="B3424">
-        <v>263.6639975710273</v>
+        <v>263.6639975710272</v>
       </c>
     </row>
     <row r="3425" spans="1:2">
@@ -27775,7 +27775,7 @@
         <v>3429</v>
       </c>
       <c r="B3429">
-        <v>155.0703341185684</v>
+        <v>155.0703341185683</v>
       </c>
     </row>
     <row r="3430" spans="1:2">
@@ -27879,7 +27879,7 @@
         <v>3442</v>
       </c>
       <c r="B3442">
-        <v>202.6595024474363</v>
+        <v>202.6595024474362</v>
       </c>
     </row>
     <row r="3443" spans="1:2">
@@ -27887,7 +27887,7 @@
         <v>3443</v>
       </c>
       <c r="B3443">
-        <v>220.6763376201812</v>
+        <v>220.6763376201811</v>
       </c>
     </row>
     <row r="3444" spans="1:2">
@@ -27919,7 +27919,7 @@
         <v>3447</v>
       </c>
       <c r="B3447">
-        <v>316.9387440499253</v>
+        <v>316.9387440499252</v>
       </c>
     </row>
     <row r="3448" spans="1:2">
@@ -27967,7 +27967,7 @@
         <v>3453</v>
       </c>
       <c r="B3453">
-        <v>274.5067467883811</v>
+        <v>274.506746788381</v>
       </c>
     </row>
     <row r="3454" spans="1:2">
@@ -28071,7 +28071,7 @@
         <v>3466</v>
       </c>
       <c r="B3466">
-        <v>227.0538564924907</v>
+        <v>227.0538564924906</v>
       </c>
     </row>
     <row r="3467" spans="1:2">
@@ -28111,7 +28111,7 @@
         <v>3471</v>
       </c>
       <c r="B3471">
-        <v>287.435868729965</v>
+        <v>287.4358687299649</v>
       </c>
     </row>
     <row r="3472" spans="1:2">
@@ -28183,7 +28183,7 @@
         <v>3480</v>
       </c>
       <c r="B3480">
-        <v>89.0941818951263</v>
+        <v>89.09418189512628</v>
       </c>
     </row>
     <row r="3481" spans="1:2">
@@ -28263,7 +28263,7 @@
         <v>3490</v>
       </c>
       <c r="B3490">
-        <v>98.59935489202972</v>
+        <v>98.59935489202969</v>
       </c>
     </row>
     <row r="3491" spans="1:2">
@@ -28327,7 +28327,7 @@
         <v>3498</v>
       </c>
       <c r="B3498">
-        <v>504.2228605960714</v>
+        <v>504.2228605960713</v>
       </c>
     </row>
     <row r="3499" spans="1:2">
@@ -28535,7 +28535,7 @@
         <v>3524</v>
       </c>
       <c r="B3524">
-        <v>296.7402880653854</v>
+        <v>296.7402880653853</v>
       </c>
     </row>
     <row r="3525" spans="1:2">
@@ -28591,7 +28591,7 @@
         <v>3531</v>
       </c>
       <c r="B3531">
-        <v>83.49476663046264</v>
+        <v>83.49476663046262</v>
       </c>
     </row>
     <row r="3532" spans="1:2">
@@ -28599,7 +28599,7 @@
         <v>3532</v>
       </c>
       <c r="B3532">
-        <v>73.71146921786961</v>
+        <v>73.71146921786959</v>
       </c>
     </row>
     <row r="3533" spans="1:2">
@@ -28623,7 +28623,7 @@
         <v>3535</v>
       </c>
       <c r="B3535">
-        <v>32.98573154341174</v>
+        <v>32.98573154341173</v>
       </c>
     </row>
     <row r="3536" spans="1:2">
@@ -28663,7 +28663,7 @@
         <v>3540</v>
       </c>
       <c r="B3540">
-        <v>341.5801569805712</v>
+        <v>341.5801569805711</v>
       </c>
     </row>
     <row r="3541" spans="1:2">
@@ -28703,7 +28703,7 @@
         <v>3545</v>
       </c>
       <c r="B3545">
-        <v>307.0036358393057</v>
+        <v>307.0036358393056</v>
       </c>
     </row>
     <row r="3546" spans="1:2">
@@ -28839,7 +28839,7 @@
         <v>3562</v>
       </c>
       <c r="B3562">
-        <v>278.3207732855198</v>
+        <v>278.3207732855197</v>
       </c>
     </row>
     <row r="3563" spans="1:2">
@@ -28887,7 +28887,7 @@
         <v>3568</v>
       </c>
       <c r="B3568">
-        <v>372.1826348375889</v>
+        <v>372.1826348375888</v>
       </c>
     </row>
     <row r="3569" spans="1:2">
@@ -28911,7 +28911,7 @@
         <v>3571</v>
       </c>
       <c r="B3571">
-        <v>463.8552557308577</v>
+        <v>463.8552557308576</v>
       </c>
     </row>
     <row r="3572" spans="1:2">
@@ -29439,7 +29439,7 @@
         <v>3637</v>
       </c>
       <c r="B3637">
-        <v>339.8539685628559</v>
+        <v>339.8539685628558</v>
       </c>
     </row>
     <row r="3638" spans="1:2">
@@ -29471,7 +29471,7 @@
         <v>3641</v>
       </c>
       <c r="B3641">
-        <v>388.6297815272636</v>
+        <v>388.6297815272635</v>
       </c>
     </row>
     <row r="3642" spans="1:2">
@@ -29503,7 +29503,7 @@
         <v>3645</v>
       </c>
       <c r="B3645">
-        <v>302.0390124443825</v>
+        <v>302.0390124443824</v>
       </c>
     </row>
     <row r="3646" spans="1:2">
@@ -29583,7 +29583,7 @@
         <v>3655</v>
       </c>
       <c r="B3655">
-        <v>9.576213416674925</v>
+        <v>9.57621341667492</v>
       </c>
     </row>
     <row r="3656" spans="1:2">
@@ -29615,7 +29615,7 @@
         <v>3659</v>
       </c>
       <c r="B3659">
-        <v>111.5697998500649</v>
+        <v>111.5697998500648</v>
       </c>
     </row>
     <row r="3660" spans="1:2">
@@ -29631,7 +29631,7 @@
         <v>3661</v>
       </c>
       <c r="B3661">
-        <v>167.8757800818372</v>
+        <v>167.8757800818371</v>
       </c>
     </row>
     <row r="3662" spans="1:2">
@@ -29647,7 +29647,7 @@
         <v>3663</v>
       </c>
       <c r="B3663">
-        <v>212.554752996798</v>
+        <v>212.5547529967979</v>
       </c>
     </row>
     <row r="3664" spans="1:2">
@@ -29751,7 +29751,7 @@
         <v>3676</v>
       </c>
       <c r="B3676">
-        <v>0.6844263808481594</v>
+        <v>0.6844263808481593</v>
       </c>
     </row>
     <row r="3677" spans="1:2">
@@ -29911,7 +29911,7 @@
         <v>3696</v>
       </c>
       <c r="B3696">
-        <v>35.67114147066565</v>
+        <v>35.67114147066564</v>
       </c>
     </row>
     <row r="3697" spans="1:2">
@@ -29959,7 +29959,7 @@
         <v>3702</v>
       </c>
       <c r="B3702">
-        <v>14.06459637377343</v>
+        <v>14.06459637377342</v>
       </c>
     </row>
     <row r="3703" spans="1:2">
@@ -30287,7 +30287,7 @@
         <v>3743</v>
       </c>
       <c r="B3743">
-        <v>172.0989337489472</v>
+        <v>172.0989337489471</v>
       </c>
     </row>
     <row r="3744" spans="1:2">
@@ -30511,7 +30511,7 @@
         <v>3771</v>
       </c>
       <c r="B3771">
-        <v>215.030617131409</v>
+        <v>215.0306171314089</v>
       </c>
     </row>
     <row r="3772" spans="1:2">
@@ -30535,7 +30535,7 @@
         <v>3774</v>
       </c>
       <c r="B3774">
-        <v>243.6753804501689</v>
+        <v>243.6753804501688</v>
       </c>
     </row>
     <row r="3775" spans="1:2">
@@ -30615,7 +30615,7 @@
         <v>3784</v>
       </c>
       <c r="B3784">
-        <v>475.9268518133185</v>
+        <v>475.9268518133184</v>
       </c>
     </row>
     <row r="3785" spans="1:2">
@@ -30623,7 +30623,7 @@
         <v>3785</v>
       </c>
       <c r="B3785">
-        <v>463.9373156216829</v>
+        <v>463.9373156216828</v>
       </c>
     </row>
     <row r="3786" spans="1:2">
@@ -30727,7 +30727,7 @@
         <v>3798</v>
       </c>
       <c r="B3798">
-        <v>188.2559401103472</v>
+        <v>188.2559401103471</v>
       </c>
     </row>
     <row r="3799" spans="1:2">
@@ -30775,7 +30775,7 @@
         <v>3804</v>
       </c>
       <c r="B3804">
-        <v>296.5849604148949</v>
+        <v>296.5849604148948</v>
       </c>
     </row>
     <row r="3805" spans="1:2">
@@ -30823,7 +30823,7 @@
         <v>3810</v>
       </c>
       <c r="B3810">
-        <v>457.4340692737876</v>
+        <v>457.4340692737875</v>
       </c>
     </row>
     <row r="3811" spans="1:2">
@@ -30943,7 +30943,7 @@
         <v>3825</v>
       </c>
       <c r="B3825">
-        <v>87.55819658150219</v>
+        <v>87.55819658150217</v>
       </c>
     </row>
     <row r="3826" spans="1:2">
@@ -31055,7 +31055,7 @@
         <v>3839</v>
       </c>
       <c r="B3839">
-        <v>83.15099430211288</v>
+        <v>83.15099430211286</v>
       </c>
     </row>
     <row r="3840" spans="1:2">
@@ -31207,7 +31207,7 @@
         <v>3858</v>
       </c>
       <c r="B3858">
-        <v>408.3446702980123</v>
+        <v>408.3446702980122</v>
       </c>
     </row>
     <row r="3859" spans="1:2">
@@ -31311,7 +31311,7 @@
         <v>3871</v>
       </c>
       <c r="B3871">
-        <v>17.01148428172099</v>
+        <v>17.01148428172098</v>
       </c>
     </row>
     <row r="3872" spans="1:2">
@@ -31335,7 +31335,7 @@
         <v>3874</v>
       </c>
       <c r="B3874">
-        <v>44.72058900245067</v>
+        <v>44.72058900245066</v>
       </c>
     </row>
     <row r="3875" spans="1:2">
@@ -31415,7 +31415,7 @@
         <v>3884</v>
       </c>
       <c r="B3884">
-        <v>269.5494501694244</v>
+        <v>269.5494501694243</v>
       </c>
     </row>
     <row r="3885" spans="1:2">
@@ -31551,7 +31551,7 @@
         <v>3901</v>
       </c>
       <c r="B3901">
-        <v>250.2032447653117</v>
+        <v>250.2032447653116</v>
       </c>
     </row>
     <row r="3902" spans="1:2">
@@ -31575,7 +31575,7 @@
         <v>3904</v>
       </c>
       <c r="B3904">
-        <v>302.4786190023745</v>
+        <v>302.4786190023744</v>
       </c>
     </row>
     <row r="3905" spans="1:2">
@@ -31599,7 +31599,7 @@
         <v>3907</v>
       </c>
       <c r="B3907">
-        <v>445.6233064157354</v>
+        <v>445.6233064157353</v>
       </c>
     </row>
     <row r="3908" spans="1:2">
@@ -31615,7 +31615,7 @@
         <v>3909</v>
       </c>
       <c r="B3909">
-        <v>313.5010207664277</v>
+        <v>313.5010207664276</v>
       </c>
     </row>
     <row r="3910" spans="1:2">
@@ -31719,7 +31719,7 @@
         <v>3922</v>
       </c>
       <c r="B3922">
-        <v>365.0229093630922</v>
+        <v>365.0229093630921</v>
       </c>
     </row>
     <row r="3923" spans="1:2">
@@ -31791,7 +31791,7 @@
         <v>3931</v>
       </c>
       <c r="B3931">
-        <v>529.9544977905375</v>
+        <v>529.9544977905374</v>
       </c>
     </row>
     <row r="3932" spans="1:2">
@@ -31879,7 +31879,7 @@
         <v>3942</v>
       </c>
       <c r="B3942">
-        <v>269.1332892945253</v>
+        <v>269.1332892945252</v>
       </c>
     </row>
     <row r="3943" spans="1:2">
@@ -32063,7 +32063,7 @@
         <v>3965</v>
       </c>
       <c r="B3965">
-        <v>242.5326964704283</v>
+        <v>242.5326964704282</v>
       </c>
     </row>
     <row r="3966" spans="1:2">
@@ -32095,7 +32095,7 @@
         <v>3969</v>
       </c>
       <c r="B3969">
-        <v>409.7221041797206</v>
+        <v>409.7221041797205</v>
       </c>
     </row>
     <row r="3970" spans="1:2">
@@ -32103,7 +32103,7 @@
         <v>3970</v>
       </c>
       <c r="B3970">
-        <v>490.6038494294787</v>
+        <v>490.6038494294786</v>
       </c>
     </row>
     <row r="3971" spans="1:2">
@@ -32127,7 +32127,7 @@
         <v>3973</v>
       </c>
       <c r="B3973">
-        <v>438.3287682634545</v>
+        <v>438.3287682634544</v>
       </c>
     </row>
     <row r="3974" spans="1:2">
@@ -32135,7 +32135,7 @@
         <v>3974</v>
       </c>
       <c r="B3974">
-        <v>476.2316456935263</v>
+        <v>476.2316456935262</v>
       </c>
     </row>
     <row r="3975" spans="1:2">
@@ -32159,7 +32159,7 @@
         <v>3977</v>
       </c>
       <c r="B3977">
-        <v>506.924975572529</v>
+        <v>506.9249755725289</v>
       </c>
     </row>
     <row r="3978" spans="1:2">
@@ -32175,7 +32175,7 @@
         <v>3979</v>
       </c>
       <c r="B3979">
-        <v>569.0999964245334</v>
+        <v>569.0999964245333</v>
       </c>
     </row>
     <row r="3980" spans="1:2">
@@ -32239,7 +32239,7 @@
         <v>3987</v>
       </c>
       <c r="B3987">
-        <v>239.4827061710797</v>
+        <v>239.4827061710796</v>
       </c>
     </row>
     <row r="3988" spans="1:2">
@@ -32311,7 +32311,7 @@
         <v>3996</v>
       </c>
       <c r="B3996">
-        <v>436.1483197358141</v>
+        <v>436.148319735814</v>
       </c>
     </row>
     <row r="3997" spans="1:2">
@@ -32359,7 +32359,7 @@
         <v>4002</v>
       </c>
       <c r="B4002">
-        <v>528.4803504660709</v>
+        <v>528.4803504660708</v>
       </c>
     </row>
     <row r="4003" spans="1:2">
@@ -32519,7 +32519,7 @@
         <v>4022</v>
       </c>
       <c r="B4022">
-        <v>351.8435047544915</v>
+        <v>351.8435047544914</v>
       </c>
     </row>
     <row r="4023" spans="1:2">
@@ -32583,7 +32583,7 @@
         <v>4030</v>
       </c>
       <c r="B4030">
-        <v>240.7842346537747</v>
+        <v>240.7842346537746</v>
       </c>
     </row>
     <row r="4031" spans="1:2">
@@ -32663,7 +32663,7 @@
         <v>4040</v>
       </c>
       <c r="B4040">
-        <v>143.3489579273079</v>
+        <v>143.3489579273078</v>
       </c>
     </row>
     <row r="4041" spans="1:2">
@@ -32927,7 +32927,7 @@
         <v>4073</v>
       </c>
       <c r="B4073">
-        <v>387.6479935477481</v>
+        <v>387.647993547748</v>
       </c>
     </row>
     <row r="4074" spans="1:2">
@@ -33239,7 +33239,7 @@
         <v>4112</v>
       </c>
       <c r="B4112">
-        <v>84.20018862052049</v>
+        <v>84.20018862052048</v>
       </c>
     </row>
     <row r="4113" spans="1:2">
@@ -33279,7 +33279,7 @@
         <v>4117</v>
       </c>
       <c r="B4117">
-        <v>383.6211974765412</v>
+        <v>383.6211974765411</v>
       </c>
     </row>
     <row r="4118" spans="1:2">
@@ -33311,7 +33311,7 @@
         <v>4121</v>
       </c>
       <c r="B4121">
-        <v>458.1257169250284</v>
+        <v>458.1257169250283</v>
       </c>
     </row>
     <row r="4122" spans="1:2">
@@ -33335,7 +33335,7 @@
         <v>4124</v>
       </c>
       <c r="B4124">
-        <v>352.7813320782078</v>
+        <v>352.7813320782077</v>
       </c>
     </row>
     <row r="4125" spans="1:2">
@@ -33351,7 +33351,7 @@
         <v>4126</v>
       </c>
       <c r="B4126">
-        <v>294.3664126522285</v>
+        <v>294.3664126522284</v>
       </c>
     </row>
     <row r="4127" spans="1:2">
@@ -33479,7 +33479,7 @@
         <v>4142</v>
       </c>
       <c r="B4142">
-        <v>361.7405137300851</v>
+        <v>361.740513730085</v>
       </c>
     </row>
     <row r="4143" spans="1:2">
@@ -33511,7 +33511,7 @@
         <v>4146</v>
       </c>
       <c r="B4146">
-        <v>592.8270277145559</v>
+        <v>592.8270277145558</v>
       </c>
     </row>
     <row r="4147" spans="1:2">
@@ -33519,7 +33519,7 @@
         <v>4147</v>
       </c>
       <c r="B4147">
-        <v>510.7348990751265</v>
+        <v>510.7348990751264</v>
       </c>
     </row>
     <row r="4148" spans="1:2">
@@ -33599,7 +33599,7 @@
         <v>4157</v>
       </c>
       <c r="B4157">
-        <v>145.2656425201531</v>
+        <v>145.265642520153</v>
       </c>
     </row>
     <row r="4158" spans="1:2">
@@ -33815,7 +33815,7 @@
         <v>4184</v>
       </c>
       <c r="B4184">
-        <v>214.8738241257252</v>
+        <v>214.8738241257251</v>
       </c>
     </row>
     <row r="4185" spans="1:2">
@@ -33855,7 +33855,7 @@
         <v>4189</v>
       </c>
       <c r="B4189">
-        <v>431.0430222423335</v>
+        <v>431.0430222423334</v>
       </c>
     </row>
     <row r="4190" spans="1:2">
@@ -33887,7 +33887,7 @@
         <v>4193</v>
       </c>
       <c r="B4193">
-        <v>431.8548290194254</v>
+        <v>431.8548290194253</v>
       </c>
     </row>
     <row r="4194" spans="1:2">
@@ -33911,7 +33911,7 @@
         <v>4196</v>
       </c>
       <c r="B4196">
-        <v>448.7562358190252</v>
+        <v>448.7562358190251</v>
       </c>
     </row>
     <row r="4197" spans="1:2">
@@ -33959,7 +33959,7 @@
         <v>4202</v>
       </c>
       <c r="B4202">
-        <v>272.7603364689981</v>
+        <v>272.760336468998</v>
       </c>
     </row>
     <row r="4203" spans="1:2">
@@ -34039,7 +34039,7 @@
         <v>4212</v>
       </c>
       <c r="B4212">
-        <v>371.5056407382812</v>
+        <v>371.5056407382811</v>
       </c>
     </row>
     <row r="4213" spans="1:2">
@@ -34063,7 +34063,7 @@
         <v>4215</v>
       </c>
       <c r="B4215">
-        <v>360.4158326353359</v>
+        <v>360.4158326353358</v>
       </c>
     </row>
     <row r="4216" spans="1:2">
@@ -34423,7 +34423,7 @@
         <v>4260</v>
       </c>
       <c r="B4260">
-        <v>260.7277188346793</v>
+        <v>260.7277188346792</v>
       </c>
     </row>
     <row r="4261" spans="1:2">
@@ -34591,7 +34591,7 @@
         <v>4281</v>
       </c>
       <c r="B4281">
-        <v>247.9196352320625</v>
+        <v>247.9196352320624</v>
       </c>
     </row>
     <row r="4282" spans="1:2">
@@ -34647,7 +34647,7 @@
         <v>4288</v>
       </c>
       <c r="B4288">
-        <v>400.2471174997993</v>
+        <v>400.2471174997992</v>
       </c>
     </row>
     <row r="4289" spans="1:2">
@@ -34711,7 +34711,7 @@
         <v>4296</v>
       </c>
       <c r="B4296">
-        <v>268.489705293625</v>
+        <v>268.4897052936249</v>
       </c>
     </row>
     <row r="4297" spans="1:2">
@@ -34767,7 +34767,7 @@
         <v>4303</v>
       </c>
       <c r="B4303">
-        <v>59.38205385356179</v>
+        <v>59.38205385356178</v>
       </c>
     </row>
     <row r="4304" spans="1:2">
@@ -34823,7 +34823,7 @@
         <v>4310</v>
       </c>
       <c r="B4310">
-        <v>429.7857474864763</v>
+        <v>429.7857474864762</v>
       </c>
     </row>
     <row r="4311" spans="1:2">
@@ -34943,7 +34943,7 @@
         <v>4325</v>
       </c>
       <c r="B4325">
-        <v>133.9331715971962</v>
+        <v>133.9331715971961</v>
       </c>
     </row>
     <row r="4326" spans="1:2">
@@ -35087,7 +35087,7 @@
         <v>4343</v>
       </c>
       <c r="B4343">
-        <v>229.847116561972</v>
+        <v>229.8471165619719</v>
       </c>
     </row>
     <row r="4344" spans="1:2">
@@ -35159,7 +35159,7 @@
         <v>4352</v>
       </c>
       <c r="B4352">
-        <v>90.07040152490724</v>
+        <v>90.07040152490723</v>
       </c>
     </row>
     <row r="4353" spans="1:2">
@@ -35183,7 +35183,7 @@
         <v>4355</v>
       </c>
       <c r="B4355">
-        <v>283.764860899693</v>
+        <v>283.7648608996929</v>
       </c>
     </row>
     <row r="4356" spans="1:2">
@@ -35191,7 +35191,7 @@
         <v>4356</v>
       </c>
       <c r="B4356">
-        <v>258.0783566451807</v>
+        <v>258.0783566451806</v>
       </c>
     </row>
     <row r="4357" spans="1:2">
@@ -35207,7 +35207,7 @@
         <v>4358</v>
       </c>
       <c r="B4358">
-        <v>323.5181888678725</v>
+        <v>323.5181888678724</v>
       </c>
     </row>
     <row r="4359" spans="1:2">
@@ -35343,7 +35343,7 @@
         <v>4375</v>
       </c>
       <c r="B4375">
-        <v>47.8948414221917</v>
+        <v>47.89484142219169</v>
       </c>
     </row>
     <row r="4376" spans="1:2">
@@ -35399,7 +35399,7 @@
         <v>4382</v>
       </c>
       <c r="B4382">
-        <v>471.6333610969298</v>
+        <v>471.6333610969297</v>
       </c>
     </row>
     <row r="4383" spans="1:2">
@@ -35431,7 +35431,7 @@
         <v>4386</v>
       </c>
       <c r="B4386">
-        <v>676.2233224760283</v>
+        <v>676.2233224760282</v>
       </c>
     </row>
     <row r="4387" spans="1:2">
@@ -35487,7 +35487,7 @@
         <v>4393</v>
       </c>
       <c r="B4393">
-        <v>256.1376402271653</v>
+        <v>256.1376402271652</v>
       </c>
     </row>
     <row r="4394" spans="1:2">
@@ -35655,7 +35655,7 @@
         <v>4414</v>
       </c>
       <c r="B4414">
-        <v>331.3021556547178</v>
+        <v>331.3021556547177</v>
       </c>
     </row>
     <row r="4415" spans="1:2">
@@ -35663,7 +35663,7 @@
         <v>4415</v>
       </c>
       <c r="B4415">
-        <v>291.4122565825221</v>
+        <v>291.412256582522</v>
       </c>
     </row>
     <row r="4416" spans="1:2">
@@ -35719,7 +35719,7 @@
         <v>4422</v>
       </c>
       <c r="B4422">
-        <v>186.6695465780733</v>
+        <v>186.6695465780732</v>
       </c>
     </row>
     <row r="4423" spans="1:2">
@@ -36023,7 +36023,7 @@
         <v>4460</v>
       </c>
       <c r="B4460">
-        <v>439.9816889215045</v>
+        <v>439.9816889215044</v>
       </c>
     </row>
     <row r="4461" spans="1:2">
@@ -36111,7 +36111,7 @@
         <v>4471</v>
       </c>
       <c r="B4471">
-        <v>84.0272767077103</v>
+        <v>84.02727670771029</v>
       </c>
     </row>
     <row r="4472" spans="1:2">
@@ -36151,7 +36151,7 @@
         <v>4476</v>
       </c>
       <c r="B4476">
-        <v>371.6170077329725</v>
+        <v>371.6170077329724</v>
       </c>
     </row>
     <row r="4477" spans="1:2">
@@ -36319,7 +36319,7 @@
         <v>4497</v>
       </c>
       <c r="B4497">
-        <v>403.8343070130142</v>
+        <v>403.8343070130141</v>
       </c>
     </row>
     <row r="4498" spans="1:2">
@@ -36335,7 +36335,7 @@
         <v>4499</v>
       </c>
       <c r="B4499">
-        <v>459.7112312441863</v>
+        <v>459.7112312441862</v>
       </c>
     </row>
     <row r="4500" spans="1:2">
@@ -36519,7 +36519,7 @@
         <v>4522</v>
       </c>
       <c r="B4522">
-        <v>395.6634864551359</v>
+        <v>395.6634864551358</v>
       </c>
     </row>
     <row r="4523" spans="1:2">
@@ -36607,7 +36607,7 @@
         <v>4533</v>
       </c>
       <c r="B4533">
-        <v>389.1133487410548</v>
+        <v>389.1133487410547</v>
       </c>
     </row>
     <row r="4534" spans="1:2">
@@ -36623,7 +36623,7 @@
         <v>4535</v>
       </c>
       <c r="B4535">
-        <v>305.4327750720809</v>
+        <v>305.4327750720808</v>
       </c>
     </row>
     <row r="4536" spans="1:2">
@@ -36759,7 +36759,7 @@
         <v>4552</v>
       </c>
       <c r="B4552">
-        <v>335.7158054969577</v>
+        <v>335.7158054969576</v>
       </c>
     </row>
     <row r="4553" spans="1:2">
@@ -36767,7 +36767,7 @@
         <v>4553</v>
       </c>
       <c r="B4553">
-        <v>319.2012524683909</v>
+        <v>319.2012524683908</v>
       </c>
     </row>
     <row r="4554" spans="1:2">
@@ -36823,7 +36823,7 @@
         <v>4560</v>
       </c>
       <c r="B4560">
-        <v>204.4278930947189</v>
+        <v>204.4278930947188</v>
       </c>
     </row>
     <row r="4561" spans="1:2">
@@ -36903,7 +36903,7 @@
         <v>4570</v>
       </c>
       <c r="B4570">
-        <v>170.0594523909029</v>
+        <v>170.0594523909028</v>
       </c>
     </row>
     <row r="4571" spans="1:2">
@@ -36911,7 +36911,7 @@
         <v>4571</v>
       </c>
       <c r="B4571">
-        <v>196.9223437946018</v>
+        <v>196.9223437946017</v>
       </c>
     </row>
     <row r="4572" spans="1:2">
@@ -37063,7 +37063,7 @@
         <v>4590</v>
       </c>
       <c r="B4590">
-        <v>159.754195458454</v>
+        <v>159.7541954584539</v>
       </c>
     </row>
     <row r="4591" spans="1:2">
@@ -37335,7 +37335,7 @@
         <v>4624</v>
       </c>
       <c r="B4624">
-        <v>276.7279321903954</v>
+        <v>276.7279321903953</v>
       </c>
     </row>
     <row r="4625" spans="1:2">
@@ -37375,7 +37375,7 @@
         <v>4629</v>
       </c>
       <c r="B4629">
-        <v>294.3664126522285</v>
+        <v>294.3664126522284</v>
       </c>
     </row>
     <row r="4630" spans="1:2">
@@ -37751,7 +37751,7 @@
         <v>4676</v>
       </c>
       <c r="B4676">
-        <v>380.6377343029687</v>
+        <v>380.6377343029686</v>
       </c>
     </row>
     <row r="4677" spans="1:2">
@@ -38023,7 +38023,7 @@
         <v>4710</v>
       </c>
       <c r="B4710">
-        <v>135.9201932393201</v>
+        <v>135.92019323932</v>
       </c>
     </row>
     <row r="4711" spans="1:2">
@@ -38103,7 +38103,7 @@
         <v>4720</v>
       </c>
       <c r="B4720">
-        <v>463.216360866576</v>
+        <v>463.2163608665759</v>
       </c>
     </row>
     <row r="4721" spans="1:2">
@@ -38303,7 +38303,7 @@
         <v>4745</v>
       </c>
       <c r="B4745">
-        <v>456.38487495538</v>
+        <v>456.3848749553799</v>
       </c>
     </row>
     <row r="4746" spans="1:2">
@@ -38327,7 +38327,7 @@
         <v>4748</v>
       </c>
       <c r="B4748">
-        <v>429.1527140429678</v>
+        <v>429.1527140429677</v>
       </c>
     </row>
     <row r="4749" spans="1:2">
@@ -38343,7 +38343,7 @@
         <v>4750</v>
       </c>
       <c r="B4750">
-        <v>327.9904529178446</v>
+        <v>327.9904529178445</v>
       </c>
     </row>
     <row r="4751" spans="1:2">
@@ -38455,7 +38455,7 @@
         <v>4764</v>
       </c>
       <c r="B4764">
-        <v>435.1284325212726</v>
+        <v>435.1284325212725</v>
       </c>
     </row>
     <row r="4765" spans="1:2">
@@ -38471,7 +38471,7 @@
         <v>4766</v>
       </c>
       <c r="B4766">
-        <v>458.8027110243361</v>
+        <v>458.802711024336</v>
       </c>
     </row>
     <row r="4767" spans="1:2">
@@ -38519,7 +38519,7 @@
         <v>4772</v>
       </c>
       <c r="B4772">
-        <v>474.0892964009119</v>
+        <v>474.0892964009118</v>
       </c>
     </row>
     <row r="4773" spans="1:2">
@@ -38559,7 +38559,7 @@
         <v>4777</v>
       </c>
       <c r="B4777">
-        <v>311.1417989052039</v>
+        <v>311.1417989052038</v>
       </c>
     </row>
     <row r="4778" spans="1:2">
@@ -38639,7 +38639,7 @@
         <v>4787</v>
       </c>
       <c r="B4787">
-        <v>413.1451739112851</v>
+        <v>413.145173911285</v>
       </c>
     </row>
     <row r="4788" spans="1:2">
@@ -38655,7 +38655,7 @@
         <v>4789</v>
       </c>
       <c r="B4789">
-        <v>434.7562323021727</v>
+        <v>434.7562323021726</v>
       </c>
     </row>
     <row r="4790" spans="1:2">
@@ -38807,7 +38807,7 @@
         <v>4808</v>
       </c>
       <c r="B4808">
-        <v>298.6833490517101</v>
+        <v>298.68334905171</v>
       </c>
     </row>
     <row r="4809" spans="1:2">
@@ -38879,7 +38879,7 @@
         <v>4817</v>
       </c>
       <c r="B4817">
-        <v>457.2259888363381</v>
+        <v>457.225988836338</v>
       </c>
     </row>
     <row r="4818" spans="1:2">
@@ -38919,7 +38919,7 @@
         <v>4822</v>
       </c>
       <c r="B4822">
-        <v>424.404963216654</v>
+        <v>424.4049632166539</v>
       </c>
     </row>
     <row r="4823" spans="1:2">
@@ -39079,7 +39079,7 @@
         <v>4842</v>
       </c>
       <c r="B4842">
-        <v>621.7033171538583</v>
+        <v>621.7033171538582</v>
       </c>
     </row>
     <row r="4843" spans="1:2">
@@ -39263,7 +39263,7 @@
         <v>4865</v>
       </c>
       <c r="B4865">
-        <v>413.3532543487347</v>
+        <v>413.3532543487346</v>
       </c>
     </row>
     <row r="4866" spans="1:2">
@@ -39359,7 +39359,7 @@
         <v>4877</v>
       </c>
       <c r="B4877">
-        <v>261.8882801477782</v>
+        <v>261.8882801477781</v>
       </c>
     </row>
     <row r="4878" spans="1:2">
@@ -39407,7 +39407,7 @@
         <v>4883</v>
       </c>
       <c r="B4883">
-        <v>507.9214171039776</v>
+        <v>507.9214171039775</v>
       </c>
     </row>
     <row r="4884" spans="1:2">
@@ -39487,7 +39487,7 @@
         <v>4893</v>
       </c>
       <c r="B4893">
-        <v>452.7068334201801</v>
+        <v>452.70683342018</v>
       </c>
     </row>
     <row r="4894" spans="1:2">
@@ -39559,7 +39559,7 @@
         <v>4902</v>
       </c>
       <c r="B4902">
-        <v>251.1516226464198</v>
+        <v>251.1516226464197</v>
       </c>
     </row>
     <row r="4903" spans="1:2">
@@ -39631,7 +39631,7 @@
         <v>4911</v>
       </c>
       <c r="B4911">
-        <v>469.8397663403224</v>
+        <v>469.8397663403223</v>
       </c>
     </row>
     <row r="4912" spans="1:2">
@@ -39671,7 +39671,7 @@
         <v>4916</v>
       </c>
       <c r="B4916">
-        <v>440.6733365727453</v>
+        <v>440.6733365727452</v>
       </c>
     </row>
     <row r="4917" spans="1:2">
@@ -39687,7 +39687,7 @@
         <v>4918</v>
       </c>
       <c r="B4918">
-        <v>356.3011152525306</v>
+        <v>356.3011152525305</v>
       </c>
     </row>
     <row r="4919" spans="1:2">
@@ -39799,7 +39799,7 @@
         <v>4932</v>
       </c>
       <c r="B4932">
-        <v>260.8065549440792</v>
+        <v>260.8065549440791</v>
       </c>
     </row>
     <row r="4933" spans="1:2">
@@ -39887,7 +39887,7 @@
         <v>4943</v>
       </c>
       <c r="B4943">
-        <v>309.2954513616374</v>
+        <v>309.2954513616373</v>
       </c>
     </row>
     <row r="4944" spans="1:2">
@@ -39935,7 +39935,7 @@
         <v>4949</v>
       </c>
       <c r="B4949">
-        <v>263.0268611329775</v>
+        <v>263.0268611329774</v>
       </c>
     </row>
     <row r="4950" spans="1:2">
@@ -39975,7 +39975,7 @@
         <v>4954</v>
       </c>
       <c r="B4954">
-        <v>389.8137885234554</v>
+        <v>389.8137885234553</v>
       </c>
     </row>
     <row r="4955" spans="1:2">
@@ -39999,7 +39999,7 @@
         <v>4957</v>
       </c>
       <c r="B4957">
-        <v>403.4914138977804</v>
+        <v>403.4914138977803</v>
       </c>
     </row>
     <row r="4958" spans="1:2">
@@ -40015,7 +40015,7 @@
         <v>4959</v>
       </c>
       <c r="B4959">
-        <v>455.1041545164299</v>
+        <v>455.1041545164298</v>
       </c>
     </row>
     <row r="4960" spans="1:2">
@@ -40071,7 +40071,7 @@
         <v>4966</v>
       </c>
       <c r="B4966">
-        <v>322.5129552052641</v>
+        <v>322.512955205264</v>
       </c>
     </row>
     <row r="4967" spans="1:2">
@@ -40119,7 +40119,7 @@
         <v>4972</v>
       </c>
       <c r="B4972">
-        <v>181.3224654776971</v>
+        <v>181.322465477697</v>
       </c>
     </row>
     <row r="4973" spans="1:2">
@@ -40263,7 +40263,7 @@
         <v>4990</v>
       </c>
       <c r="B4990">
-        <v>220.8246315657438</v>
+        <v>220.8246315657437</v>
       </c>
     </row>
     <row r="4991" spans="1:2">
@@ -40279,7 +40279,7 @@
         <v>4992</v>
       </c>
       <c r="B4992">
-        <v>148.9389949187344</v>
+        <v>148.9389949187343</v>
       </c>
     </row>
     <row r="4993" spans="1:2">
@@ -40447,7 +40447,7 @@
         <v>5013</v>
       </c>
       <c r="B5013">
-        <v>274.5035230069558</v>
+        <v>274.5035230069557</v>
       </c>
     </row>
     <row r="5014" spans="1:2">
@@ -40631,7 +40631,7 @@
         <v>5036</v>
       </c>
       <c r="B5036">
-        <v>277.6827576343541</v>
+        <v>277.682757634354</v>
       </c>
     </row>
     <row r="5037" spans="1:2">
@@ -40815,7 +40815,7 @@
         <v>5059</v>
       </c>
       <c r="B5059">
-        <v>355.8468551426055</v>
+        <v>355.8468551426054</v>
       </c>
     </row>
     <row r="5060" spans="1:2">
@@ -41111,7 +41111,7 @@
         <v>5096</v>
       </c>
       <c r="B5096">
-        <v>149.1535229190345</v>
+        <v>149.1535229190344</v>
       </c>
     </row>
     <row r="5097" spans="1:2">
@@ -41151,7 +41151,7 @@
         <v>5101</v>
       </c>
       <c r="B5101">
-        <v>336.7649998153653</v>
+        <v>336.7649998153652</v>
       </c>
     </row>
     <row r="5102" spans="1:2">
@@ -41159,7 +41159,7 @@
         <v>5102</v>
       </c>
       <c r="B5102">
-        <v>341.9670107516042</v>
+        <v>341.9670107516041</v>
       </c>
     </row>
     <row r="5103" spans="1:2">
@@ -41263,7 +41263,7 @@
         <v>5115</v>
       </c>
       <c r="B5115">
-        <v>255.1403194826007</v>
+        <v>255.1403194826006</v>
       </c>
     </row>
     <row r="5116" spans="1:2">
@@ -41311,7 +41311,7 @@
         <v>5121</v>
       </c>
       <c r="B5121">
-        <v>349.4022230024425</v>
+        <v>349.4022230024424</v>
       </c>
     </row>
     <row r="5122" spans="1:2">
@@ -41391,7 +41391,7 @@
         <v>5131</v>
       </c>
       <c r="B5131">
-        <v>475.733424927802</v>
+        <v>475.7334249278019</v>
       </c>
     </row>
     <row r="5132" spans="1:2">
@@ -41495,7 +41495,7 @@
         <v>5144</v>
       </c>
       <c r="B5144">
-        <v>152.0162408246785</v>
+        <v>152.0162408246784</v>
       </c>
     </row>
     <row r="5145" spans="1:2">
@@ -41623,7 +41623,7 @@
         <v>5160</v>
       </c>
       <c r="B5160">
-        <v>267.5184678715013</v>
+        <v>267.5184678715012</v>
       </c>
     </row>
     <row r="5161" spans="1:2">
@@ -41639,7 +41639,7 @@
         <v>5162</v>
       </c>
       <c r="B5162">
-        <v>233.995830185262</v>
+        <v>233.9958301852619</v>
       </c>
     </row>
     <row r="5163" spans="1:2">
@@ -41663,7 +41663,7 @@
         <v>5165</v>
       </c>
       <c r="B5165">
-        <v>197.132475729322</v>
+        <v>197.1324757293219</v>
       </c>
     </row>
     <row r="5166" spans="1:2">
@@ -41815,7 +41815,7 @@
         <v>5184</v>
       </c>
       <c r="B5184">
-        <v>322.1261014342311</v>
+        <v>322.126101434231</v>
       </c>
     </row>
     <row r="5185" spans="1:2">
@@ -41863,7 +41863,7 @@
         <v>5190</v>
       </c>
       <c r="B5190">
-        <v>249.5787103819244</v>
+        <v>249.5787103819243</v>
       </c>
     </row>
     <row r="5191" spans="1:2">
@@ -41887,7 +41887,7 @@
         <v>5193</v>
       </c>
       <c r="B5193">
-        <v>238.3734322897465</v>
+        <v>238.3734322897464</v>
       </c>
     </row>
     <row r="5194" spans="1:2">
@@ -41903,7 +41903,7 @@
         <v>5195</v>
       </c>
       <c r="B5195">
-        <v>317.4369648156496</v>
+        <v>317.4369648156495</v>
       </c>
     </row>
     <row r="5196" spans="1:2">
@@ -41927,7 +41927,7 @@
         <v>5198</v>
       </c>
       <c r="B5198">
-        <v>217.8997825999036</v>
+        <v>217.8997825999035</v>
       </c>
     </row>
     <row r="5199" spans="1:2">
@@ -42015,7 +42015,7 @@
         <v>5209</v>
       </c>
       <c r="B5209">
-        <v>58.51075365562161</v>
+        <v>58.5107536556216</v>
       </c>
     </row>
     <row r="5210" spans="1:2">
@@ -42023,7 +42023,7 @@
         <v>5210</v>
       </c>
       <c r="B5210">
-        <v>37.78037373591135</v>
+        <v>37.78037373591134</v>
       </c>
     </row>
     <row r="5211" spans="1:2">
@@ -42063,7 +42063,7 @@
         <v>5215</v>
       </c>
       <c r="B5215">
-        <v>7.391632587389388</v>
+        <v>7.391632587389387</v>
       </c>
     </row>
     <row r="5216" spans="1:2">
@@ -42231,7 +42231,7 @@
         <v>5236</v>
       </c>
       <c r="B5236">
-        <v>7.921680867912298</v>
+        <v>7.921680867912297</v>
       </c>
     </row>
     <row r="5237" spans="1:2">
@@ -42279,7 +42279,7 @@
         <v>5242</v>
       </c>
       <c r="B5242">
-        <v>168.621059733153</v>
+        <v>168.6210597331529</v>
       </c>
     </row>
     <row r="5243" spans="1:2">
@@ -42471,7 +42471,7 @@
         <v>5266</v>
       </c>
       <c r="B5266">
-        <v>227.3387215420695</v>
+        <v>227.3387215420694</v>
       </c>
     </row>
     <row r="5267" spans="1:2">
@@ -42719,7 +42719,7 @@
         <v>5297</v>
       </c>
       <c r="B5297">
-        <v>402.925786793164</v>
+        <v>402.9257867931639</v>
       </c>
     </row>
     <row r="5298" spans="1:2">
@@ -42743,7 +42743,7 @@
         <v>5300</v>
       </c>
       <c r="B5300">
-        <v>377.1765653363782</v>
+        <v>377.1765653363781</v>
       </c>
     </row>
     <row r="5301" spans="1:2">
@@ -42895,7 +42895,7 @@
         <v>5319</v>
       </c>
       <c r="B5319">
-        <v>344.6691257280618</v>
+        <v>344.6691257280617</v>
       </c>
     </row>
     <row r="5320" spans="1:2">
@@ -42951,7 +42951,7 @@
         <v>5326</v>
       </c>
       <c r="B5326">
-        <v>308.5070902676384</v>
+        <v>308.5070902676383</v>
       </c>
     </row>
     <row r="5327" spans="1:2">
@@ -43103,7 +43103,7 @@
         <v>5345</v>
       </c>
       <c r="B5345">
-        <v>343.1949784035952</v>
+        <v>343.1949784035951</v>
       </c>
     </row>
     <row r="5346" spans="1:2">
@@ -43111,7 +43111,7 @@
         <v>5346</v>
       </c>
       <c r="B5346">
-        <v>498.8039770912231</v>
+        <v>498.803977091223</v>
       </c>
     </row>
     <row r="5347" spans="1:2">
@@ -43231,7 +43231,7 @@
         <v>5361</v>
       </c>
       <c r="B5361">
-        <v>269.3982255134752</v>
+        <v>269.3982255134751</v>
       </c>
     </row>
     <row r="5362" spans="1:2">
@@ -43303,7 +43303,7 @@
         <v>5370</v>
       </c>
       <c r="B5370">
-        <v>548.5439937728266</v>
+        <v>548.5439937728265</v>
       </c>
     </row>
     <row r="5371" spans="1:2">
@@ -43311,7 +43311,7 @@
         <v>5371</v>
       </c>
       <c r="B5371">
-        <v>467.9934187967559</v>
+        <v>467.9934187967558</v>
       </c>
     </row>
     <row r="5372" spans="1:2">
@@ -43319,7 +43319,7 @@
         <v>5372</v>
       </c>
       <c r="B5372">
-        <v>398.960535640076</v>
+        <v>398.9605356400759</v>
       </c>
     </row>
     <row r="5373" spans="1:2">
@@ -43439,7 +43439,7 @@
         <v>5387</v>
       </c>
       <c r="B5387">
-        <v>373.5600687192972</v>
+        <v>373.5600687192971</v>
       </c>
     </row>
     <row r="5388" spans="1:2">
@@ -43479,7 +43479,7 @@
         <v>5392</v>
       </c>
       <c r="B5392">
-        <v>405.8359822070712</v>
+        <v>405.8359822070711</v>
       </c>
     </row>
     <row r="5393" spans="1:2">
@@ -43535,7 +43535,7 @@
         <v>5399</v>
       </c>
       <c r="B5399">
-        <v>349.2234496688591</v>
+        <v>349.223449668859</v>
       </c>
     </row>
     <row r="5400" spans="1:2">
@@ -43559,7 +43559,7 @@
         <v>5402</v>
       </c>
       <c r="B5402">
-        <v>277.5113110767372</v>
+        <v>277.5113110767371</v>
       </c>
     </row>
     <row r="5403" spans="1:2">
@@ -43847,7 +43847,7 @@
         <v>5438</v>
       </c>
       <c r="B5438">
-        <v>229.4435577417353</v>
+        <v>229.4435577417352</v>
       </c>
     </row>
     <row r="5439" spans="1:2">
@@ -43967,7 +43967,7 @@
         <v>5453</v>
       </c>
       <c r="B5453">
-        <v>80.4805309978307</v>
+        <v>80.48053099783068</v>
       </c>
     </row>
     <row r="5454" spans="1:2">
@@ -44191,7 +44191,7 @@
         <v>5481</v>
       </c>
       <c r="B5481">
-        <v>59.28504733976488</v>
+        <v>59.28504733976487</v>
       </c>
     </row>
     <row r="5482" spans="1:2">
@@ -44295,7 +44295,7 @@
         <v>5494</v>
       </c>
       <c r="B5494">
-        <v>341.884950860779</v>
+        <v>341.8849508607789</v>
       </c>
     </row>
     <row r="5495" spans="1:2">
@@ -44351,7 +44351,7 @@
         <v>5501</v>
       </c>
       <c r="B5501">
-        <v>198.6464807150465</v>
+        <v>198.6464807150464</v>
       </c>
     </row>
     <row r="5502" spans="1:2">
@@ -44399,7 +44399,7 @@
         <v>5507</v>
       </c>
       <c r="B5507">
-        <v>271.0666789365742</v>
+        <v>271.0666789365741</v>
       </c>
     </row>
     <row r="5508" spans="1:2">
@@ -44511,7 +44511,7 @@
         <v>5521</v>
       </c>
       <c r="B5521">
-        <v>164.2812637926558</v>
+        <v>164.2812637926557</v>
       </c>
     </row>
     <row r="5522" spans="1:2">
@@ -44567,7 +44567,7 @@
         <v>5528</v>
       </c>
       <c r="B5528">
-        <v>88.48547334782668</v>
+        <v>88.48547334782667</v>
       </c>
     </row>
     <row r="5529" spans="1:2">
@@ -44591,7 +44591,7 @@
         <v>5531</v>
       </c>
       <c r="B5531">
-        <v>289.2789924921062</v>
+        <v>289.2789924921061</v>
       </c>
     </row>
     <row r="5532" spans="1:2">
@@ -44807,7 +44807,7 @@
         <v>5558</v>
       </c>
       <c r="B5558">
-        <v>404.7721343367305</v>
+        <v>404.7721343367304</v>
       </c>
     </row>
     <row r="5559" spans="1:2">
@@ -44951,7 +44951,7 @@
         <v>5576</v>
       </c>
       <c r="B5576">
-        <v>66.28006689053387</v>
+        <v>66.28006689053386</v>
       </c>
     </row>
     <row r="5577" spans="1:2">
@@ -45015,7 +45015,7 @@
         <v>5584</v>
       </c>
       <c r="B5584">
-        <v>341.2753631003634</v>
+        <v>341.2753631003633</v>
       </c>
     </row>
     <row r="5585" spans="1:2">
@@ -45151,7 +45151,7 @@
         <v>5601</v>
       </c>
       <c r="B5601">
-        <v>181.3013643629134</v>
+        <v>181.3013643629133</v>
       </c>
     </row>
     <row r="5602" spans="1:2">
@@ -45287,7 +45287,7 @@
         <v>5618</v>
       </c>
       <c r="B5618">
-        <v>54.06750363847695</v>
+        <v>54.06750363847694</v>
       </c>
     </row>
     <row r="5619" spans="1:2">
@@ -45463,7 +45463,7 @@
         <v>5640</v>
       </c>
       <c r="B5640">
-        <v>64.95479965370727</v>
+        <v>64.95479965370725</v>
       </c>
     </row>
     <row r="5641" spans="1:2">
@@ -45711,7 +45711,7 @@
         <v>5671</v>
       </c>
       <c r="B5671">
-        <v>33.32715930345221</v>
+        <v>33.3271593034522</v>
       </c>
     </row>
     <row r="5672" spans="1:2">
@@ -45751,7 +45751,7 @@
         <v>5676</v>
       </c>
       <c r="B5676">
-        <v>276.6490960809955</v>
+        <v>276.6490960809954</v>
       </c>
     </row>
     <row r="5677" spans="1:2">
@@ -45823,7 +45823,7 @@
         <v>5685</v>
       </c>
       <c r="B5685">
-        <v>288.7353457153894</v>
+        <v>288.7353457153893</v>
       </c>
     </row>
     <row r="5686" spans="1:2">
@@ -45839,7 +45839,7 @@
         <v>5687</v>
       </c>
       <c r="B5687">
-        <v>231.1328192085793</v>
+        <v>231.1328192085792</v>
       </c>
     </row>
     <row r="5688" spans="1:2">
@@ -45887,7 +45887,7 @@
         <v>5693</v>
       </c>
       <c r="B5693">
-        <v>106.5864199086674</v>
+        <v>106.5864199086673</v>
       </c>
     </row>
     <row r="5694" spans="1:2">
@@ -45959,7 +45959,7 @@
         <v>5702</v>
       </c>
       <c r="B5702">
-        <v>457.7154174709025</v>
+        <v>457.7154174709024</v>
       </c>
     </row>
     <row r="5703" spans="1:2">
@@ -46103,7 +46103,7 @@
         <v>5720</v>
       </c>
       <c r="B5720">
-        <v>74.35065715319</v>
+        <v>74.35065715318999</v>
       </c>
     </row>
     <row r="5721" spans="1:2">
@@ -46231,7 +46231,7 @@
         <v>5736</v>
       </c>
       <c r="B5736">
-        <v>246.6339325854552</v>
+        <v>246.6339325854551</v>
       </c>
     </row>
     <row r="5737" spans="1:2">
@@ -46327,7 +46327,7 @@
         <v>5748</v>
       </c>
       <c r="B5748">
-        <v>332.9697298647009</v>
+        <v>332.9697298647008</v>
       </c>
     </row>
     <row r="5749" spans="1:2">
@@ -46551,7 +46551,7 @@
         <v>5776</v>
       </c>
       <c r="B5776">
-        <v>348.329583000942</v>
+        <v>348.3295830009419</v>
       </c>
     </row>
     <row r="5777" spans="1:2">
@@ -46623,7 +46623,7 @@
         <v>5785</v>
       </c>
       <c r="B5785">
-        <v>70.0533565132987</v>
+        <v>70.05335651329868</v>
       </c>
     </row>
     <row r="5786" spans="1:2">
@@ -46695,7 +46695,7 @@
         <v>5794</v>
       </c>
       <c r="B5794">
-        <v>207.818431940992</v>
+        <v>207.8184319409919</v>
       </c>
     </row>
     <row r="5795" spans="1:2">
@@ -46735,7 +46735,7 @@
         <v>5799</v>
       </c>
       <c r="B5799">
-        <v>334.7779781732414</v>
+        <v>334.7779781732413</v>
       </c>
     </row>
     <row r="5800" spans="1:2">
@@ -46919,7 +46919,7 @@
         <v>5822</v>
       </c>
       <c r="B5822">
-        <v>308.3576240379211</v>
+        <v>308.357624037921</v>
       </c>
     </row>
     <row r="5823" spans="1:2">
@@ -46951,7 +46951,7 @@
         <v>5826</v>
       </c>
       <c r="B5826">
-        <v>487.7317532505975</v>
+        <v>487.7317532505974</v>
       </c>
     </row>
     <row r="5827" spans="1:2">
@@ -47039,7 +47039,7 @@
         <v>5837</v>
       </c>
       <c r="B5837">
-        <v>169.3475828379945</v>
+        <v>169.3475828379944</v>
       </c>
     </row>
     <row r="5838" spans="1:2">
@@ -47095,7 +47095,7 @@
         <v>5844</v>
       </c>
       <c r="B5844">
-        <v>346.2839471510858</v>
+        <v>346.2839471510857</v>
       </c>
     </row>
     <row r="5845" spans="1:2">
@@ -47127,7 +47127,7 @@
         <v>5848</v>
       </c>
       <c r="B5848">
-        <v>429.6216277048259</v>
+        <v>429.6216277048258</v>
       </c>
     </row>
     <row r="5849" spans="1:2">
@@ -47159,7 +47159,7 @@
         <v>5852</v>
       </c>
       <c r="B5852">
-        <v>388.8759611997391</v>
+        <v>388.875961199739</v>
       </c>
     </row>
     <row r="5853" spans="1:2">
@@ -47175,7 +47175,7 @@
         <v>5854</v>
       </c>
       <c r="B5854">
-        <v>306.7428026148971</v>
+        <v>306.742802614897</v>
       </c>
     </row>
     <row r="5855" spans="1:2">
@@ -47343,7 +47343,7 @@
         <v>5875</v>
       </c>
       <c r="B5875">
-        <v>425.0526502120956</v>
+        <v>425.0526502120955</v>
       </c>
     </row>
     <row r="5876" spans="1:2">
@@ -47351,7 +47351,7 @@
         <v>5876</v>
       </c>
       <c r="B5876">
-        <v>397.2402086431339</v>
+        <v>397.2402086431338</v>
       </c>
     </row>
     <row r="5877" spans="1:2">
@@ -47431,7 +47431,7 @@
         <v>5886</v>
       </c>
       <c r="B5886">
-        <v>201.1317231228947</v>
+        <v>201.1317231228946</v>
       </c>
     </row>
     <row r="5887" spans="1:2">
@@ -47583,7 +47583,7 @@
         <v>5905</v>
       </c>
       <c r="B5905">
-        <v>37.34985238011783</v>
+        <v>37.34985238011782</v>
       </c>
     </row>
     <row r="5906" spans="1:2">
@@ -47719,7 +47719,7 @@
         <v>5922</v>
       </c>
       <c r="B5922">
-        <v>340.0473954483724</v>
+        <v>340.0473954483723</v>
       </c>
     </row>
     <row r="5923" spans="1:2">
@@ -47751,7 +47751,7 @@
         <v>5926</v>
       </c>
       <c r="B5926">
-        <v>67.34244940568125</v>
+        <v>67.34244940568124</v>
       </c>
     </row>
     <row r="5927" spans="1:2">
@@ -47767,7 +47767,7 @@
         <v>5928</v>
       </c>
       <c r="B5928">
-        <v>6.580470566582517</v>
+        <v>6.580470566582516</v>
       </c>
     </row>
     <row r="5929" spans="1:2">
@@ -47991,7 +47991,7 @@
         <v>5956</v>
       </c>
       <c r="B5956">
-        <v>7.52172682145116</v>
+        <v>7.521726821451159</v>
       </c>
     </row>
     <row r="5957" spans="1:2">
@@ -48039,7 +48039,7 @@
         <v>5962</v>
       </c>
       <c r="B5962">
-        <v>46.89078004373793</v>
+        <v>46.89078004373792</v>
       </c>
     </row>
     <row r="5963" spans="1:2">
@@ -48071,7 +48071,7 @@
         <v>5966</v>
       </c>
       <c r="B5966">
-        <v>232.9759429707205</v>
+        <v>232.9759429707204</v>
       </c>
     </row>
     <row r="5967" spans="1:2">
@@ -48287,7 +48287,7 @@
         <v>5993</v>
       </c>
       <c r="B5993">
-        <v>335.0681185015161</v>
+        <v>335.068118501516</v>
       </c>
     </row>
     <row r="5994" spans="1:2">
@@ -48559,7 +48559,7 @@
         <v>6027</v>
       </c>
       <c r="B6027">
-        <v>161.3312107174907</v>
+        <v>161.3312107174906</v>
       </c>
     </row>
     <row r="6028" spans="1:2">
@@ -48631,7 +48631,7 @@
         <v>6036</v>
       </c>
       <c r="B6036">
-        <v>231.3822226624801</v>
+        <v>231.38222266248</v>
       </c>
     </row>
     <row r="6037" spans="1:2">
@@ -48695,7 +48695,7 @@
         <v>6044</v>
       </c>
       <c r="B6044">
-        <v>250.4124974869159</v>
+        <v>250.4124974869158</v>
       </c>
     </row>
     <row r="6045" spans="1:2">
@@ -48831,7 +48831,7 @@
         <v>6061</v>
       </c>
       <c r="B6061">
-        <v>295.5943803042195</v>
+        <v>295.5943803042194</v>
       </c>
     </row>
     <row r="6062" spans="1:2">
@@ -48911,7 +48911,7 @@
         <v>6071</v>
       </c>
       <c r="B6071">
-        <v>260.5099670529539</v>
+        <v>260.5099670529538</v>
       </c>
     </row>
     <row r="6072" spans="1:2">
@@ -49151,7 +49151,7 @@
         <v>6101</v>
       </c>
       <c r="B6101">
-        <v>51.98640619294274</v>
+        <v>51.98640619294273</v>
       </c>
     </row>
     <row r="6102" spans="1:2">
@@ -49231,7 +49231,7 @@
         <v>6111</v>
       </c>
       <c r="B6111">
-        <v>333.0136905205001</v>
+        <v>333.0136905205</v>
       </c>
     </row>
     <row r="6112" spans="1:2">
@@ -49255,7 +49255,7 @@
         <v>6114</v>
       </c>
       <c r="B6114">
-        <v>405.018314009206</v>
+        <v>405.0183140092059</v>
       </c>
     </row>
     <row r="6115" spans="1:2">
@@ -49407,7 +49407,7 @@
         <v>6133</v>
       </c>
       <c r="B6133">
-        <v>248.8984925011914</v>
+        <v>248.8984925011913</v>
       </c>
     </row>
     <row r="6134" spans="1:2">
@@ -49559,7 +49559,7 @@
         <v>6152</v>
       </c>
       <c r="B6152">
-        <v>57.86892808095326</v>
+        <v>57.86892808095325</v>
       </c>
     </row>
     <row r="6153" spans="1:2">
@@ -49575,7 +49575,7 @@
         <v>6154</v>
       </c>
       <c r="B6154">
-        <v>179.6381862185103</v>
+        <v>179.6381862185102</v>
       </c>
     </row>
     <row r="6155" spans="1:2">
@@ -49679,7 +49679,7 @@
         <v>6167</v>
       </c>
       <c r="B6167">
-        <v>163.6156994638559</v>
+        <v>163.6156994638558</v>
       </c>
     </row>
     <row r="6168" spans="1:2">
@@ -49759,7 +49759,7 @@
         <v>6177</v>
       </c>
       <c r="B6177">
-        <v>83.99415968034157</v>
+        <v>83.99415968034155</v>
       </c>
     </row>
     <row r="6178" spans="1:2">
@@ -49895,7 +49895,7 @@
         <v>6194</v>
       </c>
       <c r="B6194">
-        <v>74.13202615834864</v>
+        <v>74.13202615834862</v>
       </c>
     </row>
     <row r="6195" spans="1:2">
@@ -50399,7 +50399,7 @@
         <v>6257</v>
       </c>
       <c r="B6257">
-        <v>240.5782057135958</v>
+        <v>240.5782057135957</v>
       </c>
     </row>
     <row r="6258" spans="1:2">
@@ -50407,7 +50407,7 @@
         <v>6258</v>
       </c>
       <c r="B6258">
-        <v>365.6031900196417</v>
+        <v>365.6031900196416</v>
       </c>
     </row>
     <row r="6259" spans="1:2">
@@ -50535,7 +50535,7 @@
         <v>6274</v>
       </c>
       <c r="B6274">
-        <v>230.2814478412681</v>
+        <v>230.281447841268</v>
       </c>
     </row>
     <row r="6275" spans="1:2">
@@ -50567,7 +50567,7 @@
         <v>6278</v>
       </c>
       <c r="B6278">
-        <v>363.4080879400682</v>
+        <v>363.4080879400681</v>
       </c>
     </row>
     <row r="6279" spans="1:2">
@@ -50591,7 +50591,7 @@
         <v>6281</v>
       </c>
       <c r="B6281">
-        <v>371.4675415032552</v>
+        <v>371.4675415032551</v>
       </c>
     </row>
     <row r="6282" spans="1:2">
@@ -50663,7 +50663,7 @@
         <v>6290</v>
       </c>
       <c r="B6290">
-        <v>198.7525724310419</v>
+        <v>198.7525724310418</v>
       </c>
     </row>
     <row r="6291" spans="1:2">
@@ -50783,7 +50783,7 @@
         <v>6305</v>
       </c>
       <c r="B6305">
-        <v>291.7560289108719</v>
+        <v>291.7560289108718</v>
       </c>
     </row>
     <row r="6306" spans="1:2">
@@ -50847,7 +50847,7 @@
         <v>6313</v>
       </c>
       <c r="B6313">
-        <v>76.23891385528505</v>
+        <v>76.23891385528503</v>
       </c>
     </row>
     <row r="6314" spans="1:2">
@@ -50919,7 +50919,7 @@
         <v>6322</v>
       </c>
       <c r="B6322">
-        <v>40.54461977256516</v>
+        <v>40.54461977256515</v>
       </c>
     </row>
     <row r="6323" spans="1:2">
@@ -50959,7 +50959,7 @@
         <v>6327</v>
       </c>
       <c r="B6327">
-        <v>196.5091136300893</v>
+        <v>196.5091136300892</v>
       </c>
     </row>
     <row r="6328" spans="1:2">
@@ -51007,7 +51007,7 @@
         <v>6333</v>
       </c>
       <c r="B6333">
-        <v>69.70430890625303</v>
+        <v>69.70430890625302</v>
       </c>
     </row>
     <row r="6334" spans="1:2">
@@ -51303,7 +51303,7 @@
         <v>6370</v>
       </c>
       <c r="B6370">
-        <v>75.48249750450012</v>
+        <v>75.4824975045001</v>
       </c>
     </row>
     <row r="6371" spans="1:2">
@@ -51343,7 +51343,7 @@
         <v>6375</v>
       </c>
       <c r="B6375">
-        <v>95.79232048373134</v>
+        <v>95.79232048373132</v>
       </c>
     </row>
     <row r="6376" spans="1:2">
@@ -51383,7 +51383,7 @@
         <v>6380</v>
       </c>
       <c r="B6380">
-        <v>138.5654524342774</v>
+        <v>138.5654524342773</v>
       </c>
     </row>
     <row r="6381" spans="1:2">
@@ -51399,7 +51399,7 @@
         <v>6382</v>
       </c>
       <c r="B6382">
-        <v>87.36213205663775</v>
+        <v>87.36213205663773</v>
       </c>
     </row>
     <row r="6383" spans="1:2">
@@ -51407,7 +51407,7 @@
         <v>6383</v>
       </c>
       <c r="B6383">
-        <v>65.91841722882577</v>
+        <v>65.91841722882576</v>
       </c>
     </row>
     <row r="6384" spans="1:2">
@@ -51439,7 +51439,7 @@
         <v>6387</v>
       </c>
       <c r="B6387">
-        <v>12.46741782727683</v>
+        <v>12.46741782727682</v>
       </c>
     </row>
     <row r="6388" spans="1:2">
@@ -51479,7 +51479,7 @@
         <v>6392</v>
       </c>
       <c r="B6392">
-        <v>9.939914575653653</v>
+        <v>9.939914575653651</v>
       </c>
     </row>
     <row r="6393" spans="1:2">
@@ -51511,7 +51511,7 @@
         <v>6396</v>
       </c>
       <c r="B6396">
-        <v>28.31520493578521</v>
+        <v>28.3152049357852</v>
       </c>
     </row>
     <row r="6397" spans="1:2">
@@ -51519,7 +51519,7 @@
         <v>6397</v>
       </c>
       <c r="B6397">
-        <v>56.15153179439778</v>
+        <v>56.15153179439777</v>
       </c>
     </row>
     <row r="6398" spans="1:2">
@@ -51535,7 +51535,7 @@
         <v>6399</v>
       </c>
       <c r="B6399">
-        <v>67.39344376640832</v>
+        <v>67.39344376640831</v>
       </c>
     </row>
     <row r="6400" spans="1:2">
@@ -51583,7 +51583,7 @@
         <v>6405</v>
       </c>
       <c r="B6405">
-        <v>50.12628431055918</v>
+        <v>50.12628431055917</v>
       </c>
     </row>
     <row r="6406" spans="1:2">
@@ -51607,7 +51607,7 @@
         <v>6408</v>
       </c>
       <c r="B6408">
-        <v>0.9549192266910348</v>
+        <v>0.9549192266910346</v>
       </c>
     </row>
     <row r="6409" spans="1:2">
@@ -51783,7 +51783,7 @@
         <v>6430</v>
       </c>
       <c r="B6430">
-        <v>83.59411771256883</v>
+        <v>83.59411771256882</v>
       </c>
     </row>
     <row r="6431" spans="1:2">
@@ -51791,7 +51791,7 @@
         <v>6431</v>
       </c>
       <c r="B6431">
-        <v>50.98263788552763</v>
+        <v>50.98263788552762</v>
       </c>
     </row>
     <row r="6432" spans="1:2">
@@ -51807,7 +51807,7 @@
         <v>6433</v>
       </c>
       <c r="B6433">
-        <v>15.20048110541707</v>
+        <v>15.20048110541706</v>
       </c>
     </row>
     <row r="6434" spans="1:2">
@@ -51815,7 +51815,7 @@
         <v>6434</v>
       </c>
       <c r="B6434">
-        <v>6.438506955454961</v>
+        <v>6.43850695545496</v>
       </c>
     </row>
     <row r="6435" spans="1:2">
@@ -51855,7 +51855,7 @@
         <v>6439</v>
       </c>
       <c r="B6439">
-        <v>5.817196353492909</v>
+        <v>5.817196353492908</v>
       </c>
     </row>
     <row r="6440" spans="1:2">
@@ -52023,7 +52023,7 @@
         <v>6460</v>
       </c>
       <c r="B6460">
-        <v>4.315588272703774</v>
+        <v>4.315588272703773</v>
       </c>
     </row>
     <row r="6461" spans="1:2">
@@ -52039,7 +52039,7 @@
         <v>6462</v>
       </c>
       <c r="B6462">
-        <v>6.401580004583631</v>
+        <v>6.40158000458363</v>
       </c>
     </row>
     <row r="6463" spans="1:2">
@@ -52615,7 +52615,7 @@
         <v>6534</v>
       </c>
       <c r="B6534">
-        <v>56.21542128082595</v>
+        <v>56.21542128082594</v>
       </c>
     </row>
     <row r="6535" spans="1:2">
@@ -52631,7 +52631,7 @@
         <v>6536</v>
       </c>
       <c r="B6536">
-        <v>20.16284785334257</v>
+        <v>20.16284785334256</v>
       </c>
     </row>
     <row r="6537" spans="1:2">
@@ -52847,7 +52847,7 @@
         <v>6563</v>
       </c>
       <c r="B6563">
-        <v>16.98578195163039</v>
+        <v>16.98578195163038</v>
       </c>
     </row>
     <row r="6564" spans="1:2">
@@ -52927,7 +52927,7 @@
         <v>6573</v>
       </c>
       <c r="B6573">
-        <v>57.48910801484816</v>
+        <v>57.48910801484815</v>
       </c>
     </row>
     <row r="6574" spans="1:2">
@@ -52983,7 +52983,7 @@
         <v>6580</v>
       </c>
       <c r="B6580">
-        <v>3.838175550724443</v>
+        <v>3.838175550724442</v>
       </c>
     </row>
     <row r="6581" spans="1:2">
@@ -52999,7 +52999,7 @@
         <v>6582</v>
       </c>
       <c r="B6582">
-        <v>4.829312496373246</v>
+        <v>4.829312496373245</v>
       </c>
     </row>
     <row r="6583" spans="1:2">
@@ -53039,7 +53039,7 @@
         <v>6587</v>
       </c>
       <c r="B6587">
-        <v>186.9901662943688</v>
+        <v>186.9901662943687</v>
       </c>
     </row>
     <row r="6588" spans="1:2">
@@ -53359,7 +53359,7 @@
         <v>6627</v>
       </c>
       <c r="B6627">
-        <v>51.035976814564</v>
+        <v>51.03597681456399</v>
       </c>
     </row>
     <row r="6628" spans="1:2">
@@ -53591,7 +53591,7 @@
         <v>6656</v>
       </c>
       <c r="B6656">
-        <v>38.07842698222994</v>
+        <v>38.07842698222993</v>
       </c>
     </row>
     <row r="6657" spans="1:2">
@@ -53599,7 +53599,7 @@
         <v>6657</v>
       </c>
       <c r="B6657">
-        <v>116.7823613436956</v>
+        <v>116.7823613436955</v>
       </c>
     </row>
     <row r="6658" spans="1:2">
@@ -53639,7 +53639,7 @@
         <v>6662</v>
       </c>
       <c r="B6662">
-        <v>311.997566338095</v>
+        <v>311.9975663380949</v>
       </c>
     </row>
     <row r="6663" spans="1:2">
@@ -53775,7 +53775,7 @@
         <v>6679</v>
       </c>
       <c r="B6679">
-        <v>26.19216902461856</v>
+        <v>26.19216902461855</v>
       </c>
     </row>
     <row r="6680" spans="1:2">
@@ -53815,7 +53815,7 @@
         <v>6684</v>
       </c>
       <c r="B6684">
-        <v>47.14838948672125</v>
+        <v>47.14838948672124</v>
       </c>
     </row>
     <row r="6685" spans="1:2">
@@ -53879,7 +53879,7 @@
         <v>6692</v>
       </c>
       <c r="B6692">
-        <v>68.47370361491404</v>
+        <v>68.47370361491403</v>
       </c>
     </row>
     <row r="6693" spans="1:2">
@@ -54015,7 +54015,7 @@
         <v>6709</v>
       </c>
       <c r="B6709">
-        <v>91.86135864216672</v>
+        <v>91.86135864216671</v>
       </c>
     </row>
     <row r="6710" spans="1:2">
@@ -54239,7 +54239,7 @@
         <v>6737</v>
       </c>
       <c r="B6737">
-        <v>104.9206041249163</v>
+        <v>104.9206041249162</v>
       </c>
     </row>
     <row r="6738" spans="1:2">
@@ -54263,7 +54263,7 @@
         <v>6740</v>
       </c>
       <c r="B6740">
-        <v>5.286474009581079</v>
+        <v>5.286474009581078</v>
       </c>
     </row>
     <row r="6741" spans="1:2">
@@ -54695,7 +54695,7 @@
         <v>6794</v>
       </c>
       <c r="B6794">
-        <v>5.662542766391318</v>
+        <v>5.662542766391317</v>
       </c>
     </row>
     <row r="6795" spans="1:2">
@@ -54727,7 +54727,7 @@
         <v>6798</v>
       </c>
       <c r="B6798">
-        <v>3.597710763502809</v>
+        <v>3.597710763502808</v>
       </c>
     </row>
     <row r="6799" spans="1:2">
@@ -54743,7 +54743,7 @@
         <v>6800</v>
       </c>
       <c r="B6800">
-        <v>35.49764341577813</v>
+        <v>35.49764341577812</v>
       </c>
     </row>
     <row r="6801" spans="1:2">
@@ -54967,7 +54967,7 @@
         <v>6828</v>
       </c>
       <c r="B6828">
-        <v>246.385701415709</v>
+        <v>246.3857014157089</v>
       </c>
     </row>
     <row r="6829" spans="1:2">
@@ -55079,7 +55079,7 @@
         <v>6842</v>
       </c>
       <c r="B6842">
-        <v>32.9936444614556</v>
+        <v>32.99364446145559</v>
       </c>
     </row>
     <row r="6843" spans="1:2">
@@ -55119,7 +55119,7 @@
         <v>6847</v>
       </c>
       <c r="B6847">
-        <v>7.085490580403747</v>
+        <v>7.085490580403746</v>
       </c>
     </row>
     <row r="6848" spans="1:2">
@@ -55183,7 +55183,7 @@
         <v>6855</v>
       </c>
       <c r="B6855">
-        <v>341.923050095805</v>
+        <v>341.9230500958049</v>
       </c>
     </row>
     <row r="6856" spans="1:2">
@@ -55335,7 +55335,7 @@
         <v>6874</v>
       </c>
       <c r="B6874">
-        <v>85.51431915787796</v>
+        <v>85.51431915787795</v>
       </c>
     </row>
     <row r="6875" spans="1:2">
@@ -55615,7 +55615,7 @@
         <v>6909</v>
       </c>
       <c r="B6909">
-        <v>63.95747890914271</v>
+        <v>63.9574789091427</v>
       </c>
     </row>
     <row r="6910" spans="1:2">
@@ -55623,7 +55623,7 @@
         <v>6910</v>
       </c>
       <c r="B6910">
-        <v>37.95885399845611</v>
+        <v>37.9588539984561</v>
       </c>
     </row>
     <row r="6911" spans="1:2">
@@ -55711,7 +55711,7 @@
         <v>6921</v>
       </c>
       <c r="B6921">
-        <v>70.32034422951918</v>
+        <v>70.32034422951916</v>
       </c>
     </row>
     <row r="6922" spans="1:2">
@@ -55911,7 +55911,7 @@
         <v>6946</v>
       </c>
       <c r="B6946">
-        <v>68.52206033629317</v>
+        <v>68.52206033629315</v>
       </c>
     </row>
     <row r="6947" spans="1:2">
@@ -56591,7 +56591,7 @@
         <v>7031</v>
       </c>
       <c r="B7031">
-        <v>30.75604708127623</v>
+        <v>30.75604708127622</v>
       </c>
     </row>
     <row r="7032" spans="1:2">
@@ -56743,7 +56743,7 @@
         <v>7050</v>
       </c>
       <c r="B7050">
-        <v>274.9797634447805</v>
+        <v>274.9797634447804</v>
       </c>
     </row>
     <row r="7051" spans="1:2">
@@ -56807,7 +56807,7 @@
         <v>7058</v>
       </c>
       <c r="B7058">
-        <v>7.577468933004548</v>
+        <v>7.577468933004547</v>
       </c>
     </row>
     <row r="7059" spans="1:2">
@@ -56823,7 +56823,7 @@
         <v>7060</v>
       </c>
       <c r="B7060">
-        <v>9.362945621841062</v>
+        <v>9.36294562184106</v>
       </c>
     </row>
     <row r="7061" spans="1:2">
@@ -56887,7 +56887,7 @@
         <v>7068</v>
       </c>
       <c r="B7068">
-        <v>245.1146523210348</v>
+        <v>245.1146523210347</v>
       </c>
     </row>
     <row r="7069" spans="1:2">
@@ -56895,7 +56895,7 @@
         <v>7069</v>
       </c>
       <c r="B7069">
-        <v>274.8660518817799</v>
+        <v>274.8660518817798</v>
       </c>
     </row>
     <row r="7070" spans="1:2">
@@ -57015,7 +57015,7 @@
         <v>7084</v>
       </c>
       <c r="B7084">
-        <v>9.091649761352254</v>
+        <v>9.091649761352253</v>
       </c>
     </row>
     <row r="7085" spans="1:2">
@@ -57023,7 +57023,7 @@
         <v>7085</v>
       </c>
       <c r="B7085">
-        <v>3.923635065598091</v>
+        <v>3.92363506559809</v>
       </c>
     </row>
     <row r="7086" spans="1:2">
@@ -57047,7 +57047,7 @@
         <v>7088</v>
       </c>
       <c r="B7088">
-        <v>7.967458564151199</v>
+        <v>7.967458564151198</v>
       </c>
     </row>
     <row r="7089" spans="1:2">
@@ -57095,7 +57095,7 @@
         <v>7094</v>
       </c>
       <c r="B7094">
-        <v>288.3054105016732</v>
+        <v>288.3054105016731</v>
       </c>
     </row>
     <row r="7095" spans="1:2">
@@ -57215,7 +57215,7 @@
         <v>7109</v>
       </c>
       <c r="B7109">
-        <v>86.01429834983422</v>
+        <v>86.01429834983421</v>
       </c>
     </row>
     <row r="7110" spans="1:2">
@@ -57271,7 +57271,7 @@
         <v>7116</v>
       </c>
       <c r="B7116">
-        <v>305.2774474215904</v>
+        <v>305.2774474215903</v>
       </c>
     </row>
     <row r="7117" spans="1:2">
@@ -57383,7 +57383,7 @@
         <v>7130</v>
       </c>
       <c r="B7130">
-        <v>159.1832930751417</v>
+        <v>159.1832930751416</v>
       </c>
     </row>
     <row r="7131" spans="1:2">
@@ -57503,7 +57503,7 @@
         <v>7145</v>
       </c>
       <c r="B7145">
-        <v>191.5310089673877</v>
+        <v>191.5310089673876</v>
       </c>
     </row>
     <row r="7146" spans="1:2">
@@ -57631,7 +57631,7 @@
         <v>7161</v>
       </c>
       <c r="B7161">
-        <v>47.50241930142416</v>
+        <v>47.50241930142415</v>
       </c>
     </row>
     <row r="7162" spans="1:2">
@@ -57663,7 +57663,7 @@
         <v>7165</v>
       </c>
       <c r="B7165">
-        <v>80.00165292065806</v>
+        <v>80.00165292065805</v>
       </c>
     </row>
     <row r="7166" spans="1:2">
@@ -57695,7 +57695,7 @@
         <v>7169</v>
       </c>
       <c r="B7169">
-        <v>60.05494495832824</v>
+        <v>60.05494495832823</v>
       </c>
     </row>
     <row r="7170" spans="1:2">
@@ -57703,7 +57703,7 @@
         <v>7170</v>
       </c>
       <c r="B7170">
-        <v>89.13198805911361</v>
+        <v>89.1319880591136</v>
       </c>
     </row>
     <row r="7171" spans="1:2">
@@ -57847,7 +57847,7 @@
         <v>7188</v>
       </c>
       <c r="B7188">
-        <v>59.32343964582952</v>
+        <v>59.32343964582951</v>
       </c>
     </row>
     <row r="7189" spans="1:2">
@@ -57855,7 +57855,7 @@
         <v>7189</v>
       </c>
       <c r="B7189">
-        <v>22.65861151147872</v>
+        <v>22.65861151147871</v>
       </c>
     </row>
     <row r="7190" spans="1:2">
@@ -58023,7 +58023,7 @@
         <v>7210</v>
       </c>
       <c r="B7210">
-        <v>18.83913389302087</v>
+        <v>18.83913389302086</v>
       </c>
     </row>
     <row r="7211" spans="1:2">
@@ -58415,7 +58415,7 @@
         <v>7259</v>
       </c>
       <c r="B7259">
-        <v>102.4004862634674</v>
+        <v>102.4004862634673</v>
       </c>
     </row>
     <row r="7260" spans="1:2">
@@ -58895,7 +58895,7 @@
         <v>7319</v>
       </c>
       <c r="B7319">
-        <v>0.8818624781735345</v>
+        <v>0.8818624781735344</v>
       </c>
     </row>
     <row r="7320" spans="1:2">
@@ -59183,7 +59183,7 @@
         <v>7355</v>
       </c>
       <c r="B7355">
-        <v>99.24176660877538</v>
+        <v>99.24176660877536</v>
       </c>
     </row>
     <row r="7356" spans="1:2">
@@ -59351,7 +59351,7 @@
         <v>7376</v>
       </c>
       <c r="B7376">
-        <v>3.727365391006588</v>
+        <v>3.727365391006587</v>
       </c>
     </row>
     <row r="7377" spans="1:2">
@@ -59407,7 +59407,7 @@
         <v>7383</v>
       </c>
       <c r="B7383">
-        <v>56.9671484949923</v>
+        <v>56.96714849499229</v>
       </c>
     </row>
     <row r="7384" spans="1:2">
@@ -59447,7 +59447,7 @@
         <v>7388</v>
       </c>
       <c r="B7388">
-        <v>65.06997657190118</v>
+        <v>65.06997657190117</v>
       </c>
     </row>
     <row r="7389" spans="1:2">
@@ -59487,7 +59487,7 @@
         <v>7393</v>
       </c>
       <c r="B7393">
-        <v>3.150923965063588</v>
+        <v>3.150923965063587</v>
       </c>
     </row>
     <row r="7394" spans="1:2">
@@ -59591,7 +59591,7 @@
         <v>7406</v>
       </c>
       <c r="B7406">
-        <v>55.78988213268968</v>
+        <v>55.78988213268967</v>
       </c>
     </row>
     <row r="7407" spans="1:2">
@@ -59631,7 +59631,7 @@
         <v>7411</v>
       </c>
       <c r="B7411">
-        <v>22.56814048184396</v>
+        <v>22.56814048184395</v>
       </c>
     </row>
     <row r="7412" spans="1:2">
@@ -59799,7 +59799,7 @@
         <v>7432</v>
       </c>
       <c r="B7432">
-        <v>91.45867903504605</v>
+        <v>91.45867903504602</v>
       </c>
     </row>
     <row r="7433" spans="1:2">
@@ -59807,7 +59807,7 @@
         <v>7433</v>
       </c>
       <c r="B7433">
-        <v>32.145203804531</v>
+        <v>32.14520380453099</v>
       </c>
     </row>
     <row r="7434" spans="1:2">
@@ -59975,7 +59975,7 @@
         <v>7454</v>
       </c>
       <c r="B7454">
-        <v>98.08208450879243</v>
+        <v>98.08208450879242</v>
       </c>
     </row>
     <row r="7455" spans="1:2">
@@ -60207,7 +60207,7 @@
         <v>7483</v>
       </c>
       <c r="B7483">
-        <v>61.69321206444516</v>
+        <v>61.69321206444515</v>
       </c>
     </row>
     <row r="7484" spans="1:2">
@@ -60231,7 +60231,7 @@
         <v>7486</v>
       </c>
       <c r="B7486">
-        <v>40.09387651510401</v>
+        <v>40.093876515104</v>
       </c>
     </row>
     <row r="7487" spans="1:2">
@@ -60303,7 +60303,7 @@
         <v>7495</v>
       </c>
       <c r="B7495">
-        <v>2.92610917130647</v>
+        <v>2.926109171306469</v>
       </c>
     </row>
     <row r="7496" spans="1:2">
@@ -60359,7 +60359,7 @@
         <v>7502</v>
       </c>
       <c r="B7502">
-        <v>18.21908349652506</v>
+        <v>18.21908349652505</v>
       </c>
     </row>
     <row r="7503" spans="1:2">
@@ -60407,7 +60407,7 @@
         <v>7508</v>
       </c>
       <c r="B7508">
-        <v>79.93072972930202</v>
+        <v>79.930729729302</v>
       </c>
     </row>
     <row r="7509" spans="1:2">
@@ -60479,7 +60479,7 @@
         <v>7517</v>
       </c>
       <c r="B7517">
-        <v>0.8010920999184677</v>
+        <v>0.8010920999184676</v>
       </c>
     </row>
     <row r="7518" spans="1:2">
@@ -60759,7 +60759,7 @@
         <v>7552</v>
       </c>
       <c r="B7552">
-        <v>101.4354033331556</v>
+        <v>101.4354033331555</v>
       </c>
     </row>
     <row r="7553" spans="1:2">
@@ -61159,7 +61159,7 @@
         <v>7602</v>
       </c>
       <c r="B7602">
-        <v>0.5096593283632394</v>
+        <v>0.5096593283632392</v>
       </c>
     </row>
     <row r="7603" spans="1:2">
@@ -61519,7 +61519,7 @@
         <v>7647</v>
       </c>
       <c r="B7647">
-        <v>16.3426961714958</v>
+        <v>16.34269617149579</v>
       </c>
     </row>
     <row r="7648" spans="1:2">
@@ -61679,7 +61679,7 @@
         <v>7667</v>
       </c>
       <c r="B7667">
-        <v>0.9010908690201054</v>
+        <v>0.9010908690201052</v>
       </c>
     </row>
     <row r="7668" spans="1:2">
@@ -61759,7 +61759,7 @@
         <v>7677</v>
       </c>
       <c r="B7677">
-        <v>1.910093425185705</v>
+        <v>1.910093425185704</v>
       </c>
     </row>
     <row r="7678" spans="1:2">
@@ -61855,7 +61855,7 @@
         <v>7689</v>
       </c>
       <c r="B7689">
-        <v>4.658540002145281</v>
+        <v>4.65854000214528</v>
       </c>
     </row>
     <row r="7690" spans="1:2">
@@ -61911,7 +61911,7 @@
         <v>7696</v>
       </c>
       <c r="B7696">
-        <v>29.03630622641145</v>
+        <v>29.03630622641144</v>
       </c>
     </row>
     <row r="7697" spans="1:2">
@@ -62103,7 +62103,7 @@
         <v>7720</v>
       </c>
       <c r="B7720">
-        <v>0.8238402739393613</v>
+        <v>0.8238402739393612</v>
       </c>
     </row>
     <row r="7721" spans="1:2">
@@ -62855,7 +62855,7 @@
         <v>7814</v>
       </c>
       <c r="B7814">
-        <v>24.94093153215781</v>
+        <v>24.9409315321578</v>
       </c>
     </row>
     <row r="7815" spans="1:2">
@@ -62863,7 +62863,7 @@
         <v>7815</v>
       </c>
       <c r="B7815">
-        <v>13.17448101515119</v>
+        <v>13.17448101515118</v>
       </c>
     </row>
     <row r="7816" spans="1:2">
@@ -63239,7 +63239,7 @@
         <v>7862</v>
       </c>
       <c r="B7862">
-        <v>43.88475040018851</v>
+        <v>43.8847504001885</v>
       </c>
     </row>
     <row r="7863" spans="1:2">
@@ -63791,7 +63791,7 @@
         <v>7931</v>
       </c>
       <c r="B7931">
-        <v>46.76622485230686</v>
+        <v>46.76622485230685</v>
       </c>
     </row>
     <row r="7932" spans="1:2">
@@ -63823,7 +63823,7 @@
         <v>7935</v>
       </c>
       <c r="B7935">
-        <v>28.80504386980378</v>
+        <v>28.80504386980377</v>
       </c>
     </row>
     <row r="7936" spans="1:2">
@@ -64519,7 +64519,7 @@
         <v>8022</v>
       </c>
       <c r="B8022">
-        <v>1.837546620275476</v>
+        <v>1.837546620275475</v>
       </c>
     </row>
     <row r="8023" spans="1:2">
@@ -64551,7 +64551,7 @@
         <v>8026</v>
       </c>
       <c r="B8026">
-        <v>89.00743286768254</v>
+        <v>89.00743286768252</v>
       </c>
     </row>
     <row r="8027" spans="1:2">
@@ -64623,7 +64623,7 @@
         <v>8035</v>
       </c>
       <c r="B8035">
-        <v>77.78808736564892</v>
+        <v>77.78808736564891</v>
       </c>
     </row>
     <row r="8036" spans="1:2">
@@ -64967,7 +64967,7 @@
         <v>8078</v>
       </c>
       <c r="B8078">
-        <v>140.8657670167303</v>
+        <v>140.8657670167302</v>
       </c>
     </row>
     <row r="8079" spans="1:2">
@@ -65047,7 +65047,7 @@
         <v>8088</v>
       </c>
       <c r="B8088">
-        <v>32.25217473364239</v>
+        <v>32.25217473364238</v>
       </c>
     </row>
     <row r="8089" spans="1:2">
@@ -65063,7 +65063,7 @@
         <v>8090</v>
       </c>
       <c r="B8090">
-        <v>7.331963323917939</v>
+        <v>7.331963323917938</v>
       </c>
     </row>
     <row r="8091" spans="1:2">
@@ -65143,7 +65143,7 @@
         <v>8100</v>
       </c>
       <c r="B8100">
-        <v>25.54597669147416</v>
+        <v>25.54597669147415</v>
       </c>
     </row>
     <row r="8101" spans="1:2">
@@ -65447,7 +65447,7 @@
         <v>8138</v>
       </c>
       <c r="B8138">
-        <v>18.9182923805633</v>
+        <v>18.91829238056329</v>
       </c>
     </row>
     <row r="8139" spans="1:2">
@@ -65503,7 +65503,7 @@
         <v>8145</v>
       </c>
       <c r="B8145">
-        <v>44.82755993156206</v>
+        <v>44.82755993156205</v>
       </c>
     </row>
     <row r="8146" spans="1:2">
@@ -65711,7 +65711,7 @@
         <v>8171</v>
       </c>
       <c r="B8171">
-        <v>177.1066385865536</v>
+        <v>177.1066385865535</v>
       </c>
     </row>
     <row r="8172" spans="1:2">
@@ -65823,7 +65823,7 @@
         <v>8185</v>
       </c>
       <c r="B8185">
-        <v>58.31468913075717</v>
+        <v>58.31468913075716</v>
       </c>
     </row>
     <row r="8186" spans="1:2">
@@ -65839,7 +65839,7 @@
         <v>8187</v>
       </c>
       <c r="B8187">
-        <v>10.90429413547268</v>
+        <v>10.90429413547267</v>
       </c>
     </row>
     <row r="8188" spans="1:2">
@@ -65855,7 +65855,7 @@
         <v>8189</v>
       </c>
       <c r="B8189">
-        <v>3.17176131591241</v>
+        <v>3.171761315912409</v>
       </c>
     </row>
     <row r="8190" spans="1:2">
@@ -65879,7 +65879,7 @@
         <v>8192</v>
       </c>
       <c r="B8192">
-        <v>1.917373309786053</v>
+        <v>1.917373309786052</v>
       </c>
     </row>
     <row r="8193" spans="1:2">
@@ -66127,7 +66127,7 @@
         <v>8223</v>
       </c>
       <c r="B8223">
-        <v>61.06633311274854</v>
+        <v>61.06633311274853</v>
       </c>
     </row>
     <row r="8224" spans="1:2">
@@ -66159,7 +66159,7 @@
         <v>8227</v>
       </c>
       <c r="B8227">
-        <v>0.2110841225247953</v>
+        <v>0.2110841225247952</v>
       </c>
     </row>
     <row r="8228" spans="1:2">
@@ -66327,7 +66327,7 @@
         <v>8248</v>
       </c>
       <c r="B8248">
-        <v>40.50652053753918</v>
+        <v>40.50652053753917</v>
       </c>
     </row>
     <row r="8249" spans="1:2">
@@ -66359,7 +66359,7 @@
         <v>8252</v>
       </c>
       <c r="B8252">
-        <v>0.9003113000572661</v>
+        <v>0.900311300057266</v>
       </c>
     </row>
     <row r="8253" spans="1:2">
@@ -67055,7 +67055,7 @@
         <v>8339</v>
       </c>
       <c r="B8339">
-        <v>35.35755545929801</v>
+        <v>35.357555459298</v>
       </c>
     </row>
     <row r="8340" spans="1:2">
@@ -67063,7 +67063,7 @@
         <v>8340</v>
       </c>
       <c r="B8340">
-        <v>54.10618901558025</v>
+        <v>54.10618901558024</v>
       </c>
     </row>
     <row r="8341" spans="1:2">
@@ -67255,7 +67255,7 @@
         <v>8364</v>
       </c>
       <c r="B8364">
-        <v>57.03602018907772</v>
+        <v>57.03602018907771</v>
       </c>
     </row>
     <row r="8365" spans="1:2">
@@ -67455,7 +67455,7 @@
         <v>8389</v>
       </c>
       <c r="B8389">
-        <v>42.12427267094981</v>
+        <v>42.1242726709498</v>
       </c>
     </row>
     <row r="8390" spans="1:2">
@@ -67863,7 +67863,7 @@
         <v>8440</v>
       </c>
       <c r="B8440">
-        <v>14.7381615419288</v>
+        <v>14.73816154192879</v>
       </c>
     </row>
     <row r="8441" spans="1:2">
@@ -68231,7 +68231,7 @@
         <v>8486</v>
       </c>
       <c r="B8486">
-        <v>65.02103370844473</v>
+        <v>65.02103370844472</v>
       </c>
     </row>
     <row r="8487" spans="1:2">
@@ -68247,7 +68247,7 @@
         <v>8488</v>
       </c>
       <c r="B8488">
-        <v>64.3692437184619</v>
+        <v>64.36924371846189</v>
       </c>
     </row>
     <row r="8489" spans="1:2">
@@ -68255,7 +68255,7 @@
         <v>8489</v>
       </c>
       <c r="B8489">
-        <v>7.002053255696862</v>
+        <v>7.002053255696861</v>
       </c>
     </row>
     <row r="8490" spans="1:2">
@@ -68295,7 +68295,7 @@
         <v>8494</v>
       </c>
       <c r="B8494">
-        <v>5.258104733038661</v>
+        <v>5.25810473303866</v>
       </c>
     </row>
     <row r="8495" spans="1:2">
@@ -68519,7 +68519,7 @@
         <v>8522</v>
       </c>
       <c r="B8522">
-        <v>5.514014363997747</v>
+        <v>5.514014363997746</v>
       </c>
     </row>
     <row r="8523" spans="1:2">
@@ -69175,7 +69175,7 @@
         <v>8604</v>
       </c>
       <c r="B8604">
-        <v>25.97415347895838</v>
+        <v>25.97415347895837</v>
       </c>
     </row>
     <row r="8605" spans="1:2">
@@ -69183,7 +69183,7 @@
         <v>8605</v>
       </c>
       <c r="B8605">
-        <v>36.02018907771131</v>
+        <v>36.0201890777113</v>
       </c>
     </row>
     <row r="8606" spans="1:2">
@@ -69191,7 +69191,7 @@
         <v>8606</v>
       </c>
       <c r="B8606">
-        <v>53.1375892328045</v>
+        <v>53.13758923280449</v>
       </c>
     </row>
     <row r="8607" spans="1:2">
